--- a/Meilensteine/MS 4/Zeiterfassung und Projektplan/Projektplan_Typo.xlsx
+++ b/Meilensteine/MS 4/Zeiterfassung und Projektplan/Projektplan_Typo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lennart\Google Drive\studium\SOSE 17\SWP\MS4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lennart\Google Drive\studium\SOSE 17\SWP\Repository\Zeiterfassungen und Projektplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1142,10 +1142,13 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="16" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1154,37 +1157,25 @@
     <xf numFmtId="2" fontId="1" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="16" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1193,17 +1184,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1213,13 +1194,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1243,19 +1217,45 @@
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2629,10 +2629,10 @@
   <dimension ref="A1:FH105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="10" topLeftCell="BZ62" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="10" topLeftCell="BZ38" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="CH86" sqref="CH86"/>
+      <selection pane="bottomRight" activeCell="CE2" sqref="CE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -2945,185 +2945,185 @@
       </c>
       <c r="B5" s="128"/>
       <c r="C5" s="128"/>
-      <c r="D5" s="155" t="s">
+      <c r="D5" s="159" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="155"/>
-      <c r="F5" s="155"/>
-      <c r="G5" s="155"/>
-      <c r="H5" s="155"/>
-      <c r="I5" s="155"/>
-      <c r="J5" s="155"/>
-      <c r="K5" s="155"/>
+      <c r="E5" s="159"/>
+      <c r="F5" s="159"/>
+      <c r="G5" s="159"/>
+      <c r="H5" s="159"/>
+      <c r="I5" s="159"/>
+      <c r="J5" s="159"/>
+      <c r="K5" s="159"/>
       <c r="L5" s="118"/>
-      <c r="M5" s="163" t="s">
+      <c r="M5" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="163"/>
-      <c r="O5" s="163"/>
-      <c r="P5" s="163"/>
-      <c r="Q5" s="163"/>
-      <c r="R5" s="163"/>
-      <c r="S5" s="163"/>
-      <c r="T5" s="163"/>
-      <c r="U5" s="163"/>
-      <c r="V5" s="163"/>
-      <c r="W5" s="163"/>
-      <c r="X5" s="163"/>
-      <c r="Y5" s="163"/>
-      <c r="Z5" s="163"/>
-      <c r="AA5" s="163"/>
-      <c r="AB5" s="163"/>
-      <c r="AC5" s="163"/>
-      <c r="AD5" s="163"/>
-      <c r="AE5" s="164" t="s">
+      <c r="N5" s="153"/>
+      <c r="O5" s="153"/>
+      <c r="P5" s="153"/>
+      <c r="Q5" s="153"/>
+      <c r="R5" s="153"/>
+      <c r="S5" s="153"/>
+      <c r="T5" s="153"/>
+      <c r="U5" s="153"/>
+      <c r="V5" s="153"/>
+      <c r="W5" s="153"/>
+      <c r="X5" s="153"/>
+      <c r="Y5" s="153"/>
+      <c r="Z5" s="153"/>
+      <c r="AA5" s="153"/>
+      <c r="AB5" s="153"/>
+      <c r="AC5" s="153"/>
+      <c r="AD5" s="153"/>
+      <c r="AE5" s="154" t="s">
         <v>16</v>
       </c>
-      <c r="AF5" s="164"/>
-      <c r="AG5" s="164"/>
-      <c r="AH5" s="164"/>
-      <c r="AI5" s="164"/>
-      <c r="AJ5" s="164"/>
-      <c r="AK5" s="164"/>
-      <c r="AL5" s="164"/>
-      <c r="AM5" s="164"/>
-      <c r="AN5" s="164"/>
-      <c r="AO5" s="164"/>
-      <c r="AP5" s="164"/>
-      <c r="AQ5" s="164"/>
-      <c r="AR5" s="164"/>
-      <c r="AS5" s="164"/>
-      <c r="AT5" s="164"/>
-      <c r="AU5" s="164"/>
-      <c r="AV5" s="164"/>
-      <c r="AW5" s="165" t="s">
+      <c r="AF5" s="154"/>
+      <c r="AG5" s="154"/>
+      <c r="AH5" s="154"/>
+      <c r="AI5" s="154"/>
+      <c r="AJ5" s="154"/>
+      <c r="AK5" s="154"/>
+      <c r="AL5" s="154"/>
+      <c r="AM5" s="154"/>
+      <c r="AN5" s="154"/>
+      <c r="AO5" s="154"/>
+      <c r="AP5" s="154"/>
+      <c r="AQ5" s="154"/>
+      <c r="AR5" s="154"/>
+      <c r="AS5" s="154"/>
+      <c r="AT5" s="154"/>
+      <c r="AU5" s="154"/>
+      <c r="AV5" s="154"/>
+      <c r="AW5" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="AX5" s="165"/>
-      <c r="AY5" s="165"/>
-      <c r="AZ5" s="165"/>
-      <c r="BA5" s="165"/>
-      <c r="BB5" s="165"/>
-      <c r="BC5" s="165"/>
-      <c r="BD5" s="165"/>
-      <c r="BE5" s="165"/>
-      <c r="BF5" s="165"/>
-      <c r="BG5" s="165"/>
-      <c r="BH5" s="165"/>
-      <c r="BI5" s="165"/>
-      <c r="BJ5" s="165"/>
-      <c r="BK5" s="165"/>
-      <c r="BL5" s="165"/>
-      <c r="BM5" s="165"/>
-      <c r="BN5" s="165"/>
-      <c r="BO5" s="166" t="s">
+      <c r="AX5" s="155"/>
+      <c r="AY5" s="155"/>
+      <c r="AZ5" s="155"/>
+      <c r="BA5" s="155"/>
+      <c r="BB5" s="155"/>
+      <c r="BC5" s="155"/>
+      <c r="BD5" s="155"/>
+      <c r="BE5" s="155"/>
+      <c r="BF5" s="155"/>
+      <c r="BG5" s="155"/>
+      <c r="BH5" s="155"/>
+      <c r="BI5" s="155"/>
+      <c r="BJ5" s="155"/>
+      <c r="BK5" s="155"/>
+      <c r="BL5" s="155"/>
+      <c r="BM5" s="155"/>
+      <c r="BN5" s="155"/>
+      <c r="BO5" s="156" t="s">
         <v>18</v>
       </c>
-      <c r="BP5" s="166"/>
-      <c r="BQ5" s="166"/>
-      <c r="BR5" s="166"/>
-      <c r="BS5" s="166"/>
-      <c r="BT5" s="166"/>
-      <c r="BU5" s="166"/>
-      <c r="BV5" s="166"/>
-      <c r="BW5" s="166"/>
-      <c r="BX5" s="166"/>
-      <c r="BY5" s="166"/>
-      <c r="BZ5" s="166"/>
-      <c r="CA5" s="166"/>
-      <c r="CB5" s="166"/>
-      <c r="CC5" s="166"/>
-      <c r="CD5" s="166"/>
-      <c r="CE5" s="166"/>
-      <c r="CF5" s="166"/>
-      <c r="CG5" s="167" t="s">
+      <c r="BP5" s="156"/>
+      <c r="BQ5" s="156"/>
+      <c r="BR5" s="156"/>
+      <c r="BS5" s="156"/>
+      <c r="BT5" s="156"/>
+      <c r="BU5" s="156"/>
+      <c r="BV5" s="156"/>
+      <c r="BW5" s="156"/>
+      <c r="BX5" s="156"/>
+      <c r="BY5" s="156"/>
+      <c r="BZ5" s="156"/>
+      <c r="CA5" s="156"/>
+      <c r="CB5" s="156"/>
+      <c r="CC5" s="156"/>
+      <c r="CD5" s="156"/>
+      <c r="CE5" s="156"/>
+      <c r="CF5" s="156"/>
+      <c r="CG5" s="157" t="s">
         <v>19</v>
       </c>
-      <c r="CH5" s="167"/>
-      <c r="CI5" s="167"/>
-      <c r="CJ5" s="167"/>
-      <c r="CK5" s="167"/>
-      <c r="CL5" s="167"/>
-      <c r="CM5" s="167"/>
-      <c r="CN5" s="167"/>
-      <c r="CO5" s="167"/>
-      <c r="CP5" s="167"/>
-      <c r="CQ5" s="167"/>
-      <c r="CR5" s="167"/>
-      <c r="CS5" s="167"/>
-      <c r="CT5" s="167"/>
-      <c r="CU5" s="167"/>
-      <c r="CV5" s="167"/>
-      <c r="CW5" s="167"/>
-      <c r="CX5" s="167"/>
-      <c r="CY5" s="168" t="s">
+      <c r="CH5" s="157"/>
+      <c r="CI5" s="157"/>
+      <c r="CJ5" s="157"/>
+      <c r="CK5" s="157"/>
+      <c r="CL5" s="157"/>
+      <c r="CM5" s="157"/>
+      <c r="CN5" s="157"/>
+      <c r="CO5" s="157"/>
+      <c r="CP5" s="157"/>
+      <c r="CQ5" s="157"/>
+      <c r="CR5" s="157"/>
+      <c r="CS5" s="157"/>
+      <c r="CT5" s="157"/>
+      <c r="CU5" s="157"/>
+      <c r="CV5" s="157"/>
+      <c r="CW5" s="157"/>
+      <c r="CX5" s="157"/>
+      <c r="CY5" s="158" t="s">
         <v>20</v>
       </c>
-      <c r="CZ5" s="168"/>
-      <c r="DA5" s="168"/>
-      <c r="DB5" s="168"/>
-      <c r="DC5" s="168"/>
-      <c r="DD5" s="168"/>
-      <c r="DE5" s="168"/>
-      <c r="DF5" s="168"/>
-      <c r="DG5" s="168"/>
-      <c r="DH5" s="168"/>
-      <c r="DI5" s="168"/>
-      <c r="DJ5" s="168"/>
-      <c r="DK5" s="168"/>
-      <c r="DL5" s="168"/>
-      <c r="DM5" s="168"/>
-      <c r="DN5" s="168"/>
-      <c r="DO5" s="168"/>
-      <c r="DP5" s="168"/>
-      <c r="DQ5" s="162" t="s">
+      <c r="CZ5" s="158"/>
+      <c r="DA5" s="158"/>
+      <c r="DB5" s="158"/>
+      <c r="DC5" s="158"/>
+      <c r="DD5" s="158"/>
+      <c r="DE5" s="158"/>
+      <c r="DF5" s="158"/>
+      <c r="DG5" s="158"/>
+      <c r="DH5" s="158"/>
+      <c r="DI5" s="158"/>
+      <c r="DJ5" s="158"/>
+      <c r="DK5" s="158"/>
+      <c r="DL5" s="158"/>
+      <c r="DM5" s="158"/>
+      <c r="DN5" s="158"/>
+      <c r="DO5" s="158"/>
+      <c r="DP5" s="158"/>
+      <c r="DQ5" s="152" t="s">
         <v>21</v>
       </c>
-      <c r="DR5" s="162"/>
-      <c r="DS5" s="162"/>
-      <c r="DT5" s="162"/>
-      <c r="DU5" s="162"/>
-      <c r="DV5" s="162"/>
-      <c r="DW5" s="162"/>
-      <c r="DX5" s="162"/>
-      <c r="DY5" s="162"/>
-      <c r="DZ5" s="162"/>
-      <c r="EA5" s="162"/>
-      <c r="EB5" s="162"/>
-      <c r="EC5" s="162"/>
-      <c r="ED5" s="162"/>
-      <c r="EE5" s="162"/>
-      <c r="EF5" s="162"/>
-      <c r="EG5" s="162"/>
-      <c r="EH5" s="162"/>
-      <c r="EI5" s="161" t="s">
+      <c r="DR5" s="152"/>
+      <c r="DS5" s="152"/>
+      <c r="DT5" s="152"/>
+      <c r="DU5" s="152"/>
+      <c r="DV5" s="152"/>
+      <c r="DW5" s="152"/>
+      <c r="DX5" s="152"/>
+      <c r="DY5" s="152"/>
+      <c r="DZ5" s="152"/>
+      <c r="EA5" s="152"/>
+      <c r="EB5" s="152"/>
+      <c r="EC5" s="152"/>
+      <c r="ED5" s="152"/>
+      <c r="EE5" s="152"/>
+      <c r="EF5" s="152"/>
+      <c r="EG5" s="152"/>
+      <c r="EH5" s="152"/>
+      <c r="EI5" s="162" t="s">
         <v>22</v>
       </c>
-      <c r="EJ5" s="161"/>
-      <c r="EK5" s="161"/>
-      <c r="EL5" s="161"/>
-      <c r="EM5" s="161"/>
-      <c r="EN5" s="161"/>
-      <c r="EO5" s="161"/>
-      <c r="EP5" s="161"/>
-      <c r="EQ5" s="161"/>
-      <c r="ER5" s="161"/>
-      <c r="ES5" s="161"/>
-      <c r="ET5" s="161"/>
-      <c r="EU5" s="161"/>
-      <c r="EV5" s="161"/>
-      <c r="EW5" s="161"/>
-      <c r="EX5" s="161"/>
-      <c r="EY5" s="161"/>
-      <c r="EZ5" s="161"/>
-      <c r="FA5" s="161"/>
-      <c r="FB5" s="161"/>
-      <c r="FC5" s="161"/>
-      <c r="FD5" s="161"/>
-      <c r="FE5" s="161"/>
-      <c r="FF5" s="161"/>
-      <c r="FG5" s="161"/>
-      <c r="FH5" s="161"/>
+      <c r="EJ5" s="162"/>
+      <c r="EK5" s="162"/>
+      <c r="EL5" s="162"/>
+      <c r="EM5" s="162"/>
+      <c r="EN5" s="162"/>
+      <c r="EO5" s="162"/>
+      <c r="EP5" s="162"/>
+      <c r="EQ5" s="162"/>
+      <c r="ER5" s="162"/>
+      <c r="ES5" s="162"/>
+      <c r="ET5" s="162"/>
+      <c r="EU5" s="162"/>
+      <c r="EV5" s="162"/>
+      <c r="EW5" s="162"/>
+      <c r="EX5" s="162"/>
+      <c r="EY5" s="162"/>
+      <c r="EZ5" s="162"/>
+      <c r="FA5" s="162"/>
+      <c r="FB5" s="162"/>
+      <c r="FC5" s="162"/>
+      <c r="FD5" s="162"/>
+      <c r="FE5" s="162"/>
+      <c r="FF5" s="162"/>
+      <c r="FG5" s="162"/>
+      <c r="FH5" s="162"/>
     </row>
     <row r="6" spans="1:164" s="39" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
@@ -3283,189 +3283,189 @@
       <c r="A7" s="128"/>
       <c r="B7" s="128"/>
       <c r="C7" s="118"/>
-      <c r="D7" s="156" t="s">
+      <c r="D7" s="149" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="157"/>
-      <c r="F7" s="157"/>
-      <c r="G7" s="157"/>
-      <c r="H7" s="157"/>
-      <c r="I7" s="157"/>
-      <c r="J7" s="157"/>
-      <c r="K7" s="158"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="150"/>
+      <c r="K7" s="151"/>
       <c r="L7" s="122"/>
-      <c r="M7" s="156" t="s">
+      <c r="M7" s="149" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="157"/>
-      <c r="O7" s="157"/>
-      <c r="P7" s="157"/>
-      <c r="Q7" s="157"/>
-      <c r="R7" s="157"/>
-      <c r="S7" s="157"/>
-      <c r="T7" s="158"/>
+      <c r="N7" s="150"/>
+      <c r="O7" s="150"/>
+      <c r="P7" s="150"/>
+      <c r="Q7" s="150"/>
+      <c r="R7" s="150"/>
+      <c r="S7" s="150"/>
+      <c r="T7" s="151"/>
       <c r="U7" s="122"/>
-      <c r="V7" s="156" t="s">
+      <c r="V7" s="149" t="s">
         <v>26</v>
       </c>
-      <c r="W7" s="157"/>
-      <c r="X7" s="157"/>
-      <c r="Y7" s="157"/>
-      <c r="Z7" s="157"/>
-      <c r="AA7" s="157"/>
-      <c r="AB7" s="157"/>
-      <c r="AC7" s="158"/>
+      <c r="W7" s="150"/>
+      <c r="X7" s="150"/>
+      <c r="Y7" s="150"/>
+      <c r="Z7" s="150"/>
+      <c r="AA7" s="150"/>
+      <c r="AB7" s="150"/>
+      <c r="AC7" s="151"/>
       <c r="AD7" s="122"/>
-      <c r="AE7" s="156" t="s">
+      <c r="AE7" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="AF7" s="157"/>
-      <c r="AG7" s="157"/>
-      <c r="AH7" s="157"/>
-      <c r="AI7" s="157"/>
-      <c r="AJ7" s="157"/>
-      <c r="AK7" s="157"/>
-      <c r="AL7" s="158"/>
-      <c r="AN7" s="156" t="s">
+      <c r="AF7" s="150"/>
+      <c r="AG7" s="150"/>
+      <c r="AH7" s="150"/>
+      <c r="AI7" s="150"/>
+      <c r="AJ7" s="150"/>
+      <c r="AK7" s="150"/>
+      <c r="AL7" s="151"/>
+      <c r="AN7" s="149" t="s">
         <v>28</v>
       </c>
-      <c r="AO7" s="157"/>
-      <c r="AP7" s="157"/>
-      <c r="AQ7" s="157"/>
-      <c r="AR7" s="157"/>
-      <c r="AS7" s="157"/>
-      <c r="AT7" s="157"/>
-      <c r="AU7" s="158"/>
-      <c r="AW7" s="156" t="s">
+      <c r="AO7" s="150"/>
+      <c r="AP7" s="150"/>
+      <c r="AQ7" s="150"/>
+      <c r="AR7" s="150"/>
+      <c r="AS7" s="150"/>
+      <c r="AT7" s="150"/>
+      <c r="AU7" s="151"/>
+      <c r="AW7" s="149" t="s">
         <v>29</v>
       </c>
-      <c r="AX7" s="157"/>
-      <c r="AY7" s="157"/>
-      <c r="AZ7" s="157"/>
-      <c r="BA7" s="157"/>
-      <c r="BB7" s="157"/>
-      <c r="BC7" s="157"/>
-      <c r="BD7" s="158"/>
-      <c r="BF7" s="156" t="s">
+      <c r="AX7" s="150"/>
+      <c r="AY7" s="150"/>
+      <c r="AZ7" s="150"/>
+      <c r="BA7" s="150"/>
+      <c r="BB7" s="150"/>
+      <c r="BC7" s="150"/>
+      <c r="BD7" s="151"/>
+      <c r="BF7" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="BG7" s="157"/>
-      <c r="BH7" s="157"/>
-      <c r="BI7" s="157"/>
-      <c r="BJ7" s="157"/>
-      <c r="BK7" s="157"/>
-      <c r="BL7" s="157"/>
-      <c r="BM7" s="158"/>
-      <c r="BO7" s="156" t="s">
+      <c r="BG7" s="150"/>
+      <c r="BH7" s="150"/>
+      <c r="BI7" s="150"/>
+      <c r="BJ7" s="150"/>
+      <c r="BK7" s="150"/>
+      <c r="BL7" s="150"/>
+      <c r="BM7" s="151"/>
+      <c r="BO7" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="BP7" s="157"/>
-      <c r="BQ7" s="157"/>
-      <c r="BR7" s="157"/>
-      <c r="BS7" s="157"/>
-      <c r="BT7" s="157"/>
-      <c r="BU7" s="157"/>
-      <c r="BV7" s="158"/>
-      <c r="BX7" s="156" t="s">
+      <c r="BP7" s="150"/>
+      <c r="BQ7" s="150"/>
+      <c r="BR7" s="150"/>
+      <c r="BS7" s="150"/>
+      <c r="BT7" s="150"/>
+      <c r="BU7" s="150"/>
+      <c r="BV7" s="151"/>
+      <c r="BX7" s="149" t="s">
         <v>32</v>
       </c>
-      <c r="BY7" s="157"/>
-      <c r="BZ7" s="157"/>
-      <c r="CA7" s="157"/>
-      <c r="CB7" s="157"/>
-      <c r="CC7" s="157"/>
-      <c r="CD7" s="157"/>
-      <c r="CE7" s="158"/>
-      <c r="CG7" s="156" t="s">
+      <c r="BY7" s="150"/>
+      <c r="BZ7" s="150"/>
+      <c r="CA7" s="150"/>
+      <c r="CB7" s="150"/>
+      <c r="CC7" s="150"/>
+      <c r="CD7" s="150"/>
+      <c r="CE7" s="151"/>
+      <c r="CG7" s="149" t="s">
         <v>33</v>
       </c>
-      <c r="CH7" s="157"/>
-      <c r="CI7" s="157"/>
-      <c r="CJ7" s="157"/>
-      <c r="CK7" s="157"/>
-      <c r="CL7" s="157"/>
-      <c r="CM7" s="157"/>
-      <c r="CN7" s="158"/>
-      <c r="CP7" s="156" t="s">
+      <c r="CH7" s="150"/>
+      <c r="CI7" s="150"/>
+      <c r="CJ7" s="150"/>
+      <c r="CK7" s="150"/>
+      <c r="CL7" s="150"/>
+      <c r="CM7" s="150"/>
+      <c r="CN7" s="151"/>
+      <c r="CP7" s="149" t="s">
         <v>34</v>
       </c>
-      <c r="CQ7" s="157"/>
-      <c r="CR7" s="157"/>
-      <c r="CS7" s="157"/>
-      <c r="CT7" s="157"/>
-      <c r="CU7" s="157"/>
-      <c r="CV7" s="157"/>
-      <c r="CW7" s="158"/>
-      <c r="CY7" s="156" t="s">
+      <c r="CQ7" s="150"/>
+      <c r="CR7" s="150"/>
+      <c r="CS7" s="150"/>
+      <c r="CT7" s="150"/>
+      <c r="CU7" s="150"/>
+      <c r="CV7" s="150"/>
+      <c r="CW7" s="151"/>
+      <c r="CY7" s="149" t="s">
         <v>35</v>
       </c>
-      <c r="CZ7" s="157"/>
-      <c r="DA7" s="157"/>
-      <c r="DB7" s="157"/>
-      <c r="DC7" s="157"/>
-      <c r="DD7" s="157"/>
-      <c r="DE7" s="157"/>
-      <c r="DF7" s="158"/>
-      <c r="DH7" s="156" t="s">
+      <c r="CZ7" s="150"/>
+      <c r="DA7" s="150"/>
+      <c r="DB7" s="150"/>
+      <c r="DC7" s="150"/>
+      <c r="DD7" s="150"/>
+      <c r="DE7" s="150"/>
+      <c r="DF7" s="151"/>
+      <c r="DH7" s="149" t="s">
         <v>36</v>
       </c>
-      <c r="DI7" s="157"/>
-      <c r="DJ7" s="157"/>
-      <c r="DK7" s="157"/>
-      <c r="DL7" s="157"/>
-      <c r="DM7" s="157"/>
-      <c r="DN7" s="157"/>
-      <c r="DO7" s="158"/>
-      <c r="DQ7" s="156" t="s">
+      <c r="DI7" s="150"/>
+      <c r="DJ7" s="150"/>
+      <c r="DK7" s="150"/>
+      <c r="DL7" s="150"/>
+      <c r="DM7" s="150"/>
+      <c r="DN7" s="150"/>
+      <c r="DO7" s="151"/>
+      <c r="DQ7" s="149" t="s">
         <v>37</v>
       </c>
-      <c r="DR7" s="157"/>
-      <c r="DS7" s="157"/>
-      <c r="DT7" s="157"/>
-      <c r="DU7" s="157"/>
-      <c r="DV7" s="157"/>
-      <c r="DW7" s="157"/>
-      <c r="DX7" s="158"/>
-      <c r="DZ7" s="156" t="s">
+      <c r="DR7" s="150"/>
+      <c r="DS7" s="150"/>
+      <c r="DT7" s="150"/>
+      <c r="DU7" s="150"/>
+      <c r="DV7" s="150"/>
+      <c r="DW7" s="150"/>
+      <c r="DX7" s="151"/>
+      <c r="DZ7" s="149" t="s">
         <v>38</v>
       </c>
-      <c r="EA7" s="157"/>
-      <c r="EB7" s="157"/>
-      <c r="EC7" s="157"/>
-      <c r="ED7" s="157"/>
-      <c r="EE7" s="157"/>
-      <c r="EF7" s="157"/>
-      <c r="EG7" s="158"/>
-      <c r="EI7" s="156" t="s">
+      <c r="EA7" s="150"/>
+      <c r="EB7" s="150"/>
+      <c r="EC7" s="150"/>
+      <c r="ED7" s="150"/>
+      <c r="EE7" s="150"/>
+      <c r="EF7" s="150"/>
+      <c r="EG7" s="151"/>
+      <c r="EI7" s="149" t="s">
         <v>39</v>
       </c>
-      <c r="EJ7" s="157"/>
-      <c r="EK7" s="157"/>
-      <c r="EL7" s="157"/>
-      <c r="EM7" s="157"/>
-      <c r="EN7" s="157"/>
-      <c r="EO7" s="157"/>
-      <c r="EP7" s="158"/>
-      <c r="ER7" s="156" t="s">
+      <c r="EJ7" s="150"/>
+      <c r="EK7" s="150"/>
+      <c r="EL7" s="150"/>
+      <c r="EM7" s="150"/>
+      <c r="EN7" s="150"/>
+      <c r="EO7" s="150"/>
+      <c r="EP7" s="151"/>
+      <c r="ER7" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="ES7" s="157"/>
-      <c r="ET7" s="157"/>
-      <c r="EU7" s="157"/>
-      <c r="EV7" s="157"/>
-      <c r="EW7" s="157"/>
-      <c r="EX7" s="157"/>
-      <c r="EY7" s="158"/>
-      <c r="FA7" s="156" t="s">
+      <c r="ES7" s="150"/>
+      <c r="ET7" s="150"/>
+      <c r="EU7" s="150"/>
+      <c r="EV7" s="150"/>
+      <c r="EW7" s="150"/>
+      <c r="EX7" s="150"/>
+      <c r="EY7" s="151"/>
+      <c r="FA7" s="149" t="s">
         <v>41</v>
       </c>
-      <c r="FB7" s="157"/>
-      <c r="FC7" s="157"/>
-      <c r="FD7" s="157"/>
-      <c r="FE7" s="157"/>
-      <c r="FF7" s="157"/>
-      <c r="FG7" s="157"/>
-      <c r="FH7" s="158"/>
+      <c r="FB7" s="150"/>
+      <c r="FC7" s="150"/>
+      <c r="FD7" s="150"/>
+      <c r="FE7" s="150"/>
+      <c r="FF7" s="150"/>
+      <c r="FG7" s="150"/>
+      <c r="FH7" s="151"/>
     </row>
     <row r="8" spans="1:164" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
@@ -3473,267 +3473,267 @@
       </c>
       <c r="B8" s="36"/>
       <c r="C8" s="37"/>
-      <c r="D8" s="159" t="s">
+      <c r="D8" s="160" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="160"/>
-      <c r="F8" s="151" t="s">
+      <c r="E8" s="161"/>
+      <c r="F8" s="164" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="152"/>
-      <c r="H8" s="151" t="s">
+      <c r="G8" s="165"/>
+      <c r="H8" s="164" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="151"/>
-      <c r="J8" s="151"/>
-      <c r="K8" s="153"/>
+      <c r="I8" s="164"/>
+      <c r="J8" s="164"/>
+      <c r="K8" s="166"/>
       <c r="L8" s="127"/>
       <c r="M8" s="148">
         <f>(Details!B16)</f>
         <v>42809</v>
       </c>
-      <c r="N8" s="160"/>
+      <c r="N8" s="161"/>
       <c r="O8" s="128"/>
       <c r="P8" s="128"/>
-      <c r="S8" s="149">
+      <c r="S8" s="146">
         <f>SUM(M8+6)</f>
         <v>42815</v>
       </c>
-      <c r="T8" s="150"/>
+      <c r="T8" s="147"/>
       <c r="U8" s="127"/>
       <c r="V8" s="148">
         <f>SUM(S8+1)</f>
         <v>42816</v>
       </c>
-      <c r="W8" s="149"/>
+      <c r="W8" s="146"/>
       <c r="X8" s="127"/>
       <c r="Y8" s="127"/>
       <c r="Z8" s="127"/>
       <c r="AA8" s="127"/>
-      <c r="AB8" s="149">
+      <c r="AB8" s="146">
         <f>SUM(V8+6)</f>
         <v>42822</v>
       </c>
-      <c r="AC8" s="150"/>
+      <c r="AC8" s="147"/>
       <c r="AD8" s="127"/>
       <c r="AE8" s="148">
         <f>SUM(AB8+1)</f>
         <v>42823</v>
       </c>
-      <c r="AF8" s="149"/>
+      <c r="AF8" s="146"/>
       <c r="AG8" s="127"/>
       <c r="AH8" s="127"/>
       <c r="AI8" s="127"/>
       <c r="AJ8" s="127"/>
-      <c r="AK8" s="149">
+      <c r="AK8" s="146">
         <f>SUM(AE8+6)</f>
         <v>42829</v>
       </c>
-      <c r="AL8" s="150"/>
+      <c r="AL8" s="147"/>
       <c r="AN8" s="148">
         <f>SUM(AK8+1)</f>
         <v>42830</v>
       </c>
-      <c r="AO8" s="149"/>
+      <c r="AO8" s="146"/>
       <c r="AP8" s="127"/>
       <c r="AQ8" s="127"/>
       <c r="AR8" s="127"/>
       <c r="AS8" s="127"/>
-      <c r="AT8" s="149">
+      <c r="AT8" s="146">
         <f>SUM(AN8+6)</f>
         <v>42836</v>
       </c>
-      <c r="AU8" s="150"/>
+      <c r="AU8" s="147"/>
       <c r="AW8" s="148">
         <f>SUM(AT8+1)</f>
         <v>42837</v>
       </c>
-      <c r="AX8" s="149"/>
-      <c r="AY8" s="149"/>
-      <c r="AZ8" s="149"/>
+      <c r="AX8" s="146"/>
+      <c r="AY8" s="146"/>
+      <c r="AZ8" s="146"/>
       <c r="BA8" s="127"/>
       <c r="BB8" s="127"/>
-      <c r="BC8" s="149">
+      <c r="BC8" s="146">
         <f>SUM(AW8+6)</f>
         <v>42843</v>
       </c>
-      <c r="BD8" s="150"/>
+      <c r="BD8" s="147"/>
       <c r="BF8" s="148">
         <f>SUM(BC8+1)</f>
         <v>42844</v>
       </c>
-      <c r="BG8" s="149"/>
+      <c r="BG8" s="146"/>
       <c r="BH8" s="127"/>
       <c r="BI8" s="127"/>
       <c r="BJ8" s="127"/>
       <c r="BK8" s="127"/>
-      <c r="BL8" s="149">
+      <c r="BL8" s="146">
         <f>SUM(BF8+6)</f>
         <v>42850</v>
       </c>
-      <c r="BM8" s="150"/>
+      <c r="BM8" s="147"/>
       <c r="BO8" s="148">
         <f>SUM(BL8+1)</f>
         <v>42851</v>
       </c>
-      <c r="BP8" s="149"/>
+      <c r="BP8" s="146"/>
       <c r="BQ8" s="127"/>
       <c r="BR8" s="127"/>
       <c r="BS8" s="127"/>
       <c r="BT8" s="127"/>
-      <c r="BU8" s="149">
+      <c r="BU8" s="146">
         <f>SUM(BO8+6)</f>
         <v>42857</v>
       </c>
-      <c r="BV8" s="150"/>
+      <c r="BV8" s="147"/>
       <c r="BX8" s="148">
         <f>SUM(BU8+1)</f>
         <v>42858</v>
       </c>
-      <c r="BY8" s="149"/>
+      <c r="BY8" s="146"/>
       <c r="BZ8" s="127"/>
       <c r="CA8" s="127"/>
       <c r="CB8" s="127"/>
       <c r="CC8" s="127"/>
-      <c r="CD8" s="149">
+      <c r="CD8" s="146">
         <f>SUM(BX8+6)</f>
         <v>42864</v>
       </c>
-      <c r="CE8" s="150"/>
+      <c r="CE8" s="147"/>
       <c r="CG8" s="148">
         <f>SUM(CD8+1)</f>
         <v>42865</v>
       </c>
-      <c r="CH8" s="149"/>
+      <c r="CH8" s="146"/>
       <c r="CI8" s="127"/>
       <c r="CJ8" s="127"/>
       <c r="CK8" s="127"/>
       <c r="CL8" s="127"/>
-      <c r="CM8" s="149">
+      <c r="CM8" s="146">
         <f>SUM(CG8+6)</f>
         <v>42871</v>
       </c>
-      <c r="CN8" s="150"/>
+      <c r="CN8" s="147"/>
       <c r="CP8" s="148">
         <f>SUM(CM8+1)</f>
         <v>42872</v>
       </c>
-      <c r="CQ8" s="149"/>
+      <c r="CQ8" s="146"/>
       <c r="CR8" s="127"/>
       <c r="CS8" s="127"/>
       <c r="CT8" s="127"/>
       <c r="CU8" s="127"/>
-      <c r="CV8" s="149">
+      <c r="CV8" s="146">
         <f>SUM(CP8+6)</f>
         <v>42878</v>
       </c>
-      <c r="CW8" s="150"/>
+      <c r="CW8" s="147"/>
       <c r="CY8" s="148">
         <f>SUM(CV8+1)</f>
         <v>42879</v>
       </c>
-      <c r="CZ8" s="149"/>
+      <c r="CZ8" s="146"/>
       <c r="DA8" s="127"/>
       <c r="DB8" s="127"/>
       <c r="DC8" s="127"/>
       <c r="DD8" s="127"/>
-      <c r="DE8" s="149">
+      <c r="DE8" s="146">
         <f>SUM(CY8+6)</f>
         <v>42885</v>
       </c>
-      <c r="DF8" s="150"/>
+      <c r="DF8" s="147"/>
       <c r="DH8" s="148">
         <f>SUM(DE8+1)</f>
         <v>42886</v>
       </c>
-      <c r="DI8" s="149"/>
+      <c r="DI8" s="146"/>
       <c r="DJ8" s="127"/>
       <c r="DK8" s="127"/>
       <c r="DL8" s="127"/>
       <c r="DM8" s="127"/>
-      <c r="DN8" s="149">
+      <c r="DN8" s="146">
         <f>SUM(DH8+6)</f>
         <v>42892</v>
       </c>
-      <c r="DO8" s="150"/>
+      <c r="DO8" s="147"/>
       <c r="DQ8" s="148">
         <f>SUM(DN8+1)</f>
         <v>42893</v>
       </c>
-      <c r="DR8" s="149"/>
+      <c r="DR8" s="146"/>
       <c r="DS8" s="127"/>
       <c r="DT8" s="127"/>
       <c r="DU8" s="127"/>
       <c r="DV8" s="127"/>
-      <c r="DW8" s="149">
+      <c r="DW8" s="146">
         <f>SUM(DQ8+6)</f>
         <v>42899</v>
       </c>
-      <c r="DX8" s="150"/>
+      <c r="DX8" s="147"/>
       <c r="DZ8" s="148">
         <f>SUM(DW8+1)</f>
         <v>42900</v>
       </c>
-      <c r="EA8" s="149"/>
+      <c r="EA8" s="146"/>
       <c r="EB8" s="127"/>
       <c r="EC8" s="127"/>
       <c r="ED8" s="127"/>
       <c r="EE8" s="127"/>
-      <c r="EF8" s="149">
+      <c r="EF8" s="146">
         <f>SUM(DZ8+6)</f>
         <v>42906</v>
       </c>
-      <c r="EG8" s="150"/>
+      <c r="EG8" s="147"/>
       <c r="EI8" s="148">
         <f>SUM(EF8+1)</f>
         <v>42907</v>
       </c>
-      <c r="EJ8" s="149"/>
+      <c r="EJ8" s="146"/>
       <c r="EK8" s="127"/>
       <c r="EL8" s="127"/>
       <c r="EM8" s="127"/>
       <c r="EN8" s="127"/>
-      <c r="EO8" s="149">
+      <c r="EO8" s="146">
         <f>SUM(EI8+6)</f>
         <v>42913</v>
       </c>
-      <c r="EP8" s="150"/>
+      <c r="EP8" s="147"/>
       <c r="ER8" s="148">
         <f>SUM(EO8+1)</f>
         <v>42914</v>
       </c>
-      <c r="ES8" s="149"/>
+      <c r="ES8" s="146"/>
       <c r="ET8" s="127"/>
       <c r="EU8" s="127"/>
       <c r="EV8" s="127"/>
       <c r="EW8" s="127"/>
-      <c r="EX8" s="149">
+      <c r="EX8" s="146">
         <f>SUM(ER8+6)</f>
         <v>42920</v>
       </c>
-      <c r="EY8" s="150"/>
+      <c r="EY8" s="147"/>
       <c r="FA8" s="148">
         <f>SUM(EX8+1)</f>
         <v>42921</v>
       </c>
-      <c r="FB8" s="149"/>
+      <c r="FB8" s="146"/>
       <c r="FC8" s="127"/>
       <c r="FD8" s="127"/>
       <c r="FE8" s="127"/>
       <c r="FF8" s="127"/>
-      <c r="FG8" s="149">
+      <c r="FG8" s="146">
         <f>SUM(FA8+6)</f>
         <v>42927</v>
       </c>
-      <c r="FH8" s="150"/>
+      <c r="FH8" s="147"/>
     </row>
     <row r="9" spans="1:164" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="143" t="s">
+      <c r="B9" s="163" t="s">
         <v>44</v>
       </c>
       <c r="C9" s="139"/>
-      <c r="D9" s="145" t="str">
+      <c r="D9" s="144" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -3752,9 +3752,9 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="K9" s="146"/>
+      <c r="K9" s="145"/>
       <c r="L9" s="122"/>
-      <c r="M9" s="145" t="str">
+      <c r="M9" s="144" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -3773,9 +3773,9 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="T9" s="146"/>
+      <c r="T9" s="145"/>
       <c r="U9" s="122"/>
-      <c r="V9" s="145" t="str">
+      <c r="V9" s="144" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -3794,9 +3794,9 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="AC9" s="146"/>
+      <c r="AC9" s="145"/>
       <c r="AD9" s="122"/>
-      <c r="AE9" s="145" t="str">
+      <c r="AE9" s="144" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -3815,8 +3815,8 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="AL9" s="146"/>
-      <c r="AN9" s="145" t="str">
+      <c r="AL9" s="145"/>
+      <c r="AN9" s="144" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -3835,8 +3835,8 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="AU9" s="146"/>
-      <c r="AW9" s="145" t="str">
+      <c r="AU9" s="145"/>
+      <c r="AW9" s="144" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -3855,8 +3855,8 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="BD9" s="146"/>
-      <c r="BF9" s="145" t="str">
+      <c r="BD9" s="145"/>
+      <c r="BF9" s="144" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -3875,8 +3875,8 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="BM9" s="146"/>
-      <c r="BO9" s="145" t="str">
+      <c r="BM9" s="145"/>
+      <c r="BO9" s="144" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -3895,8 +3895,8 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="BV9" s="146"/>
-      <c r="BX9" s="145" t="str">
+      <c r="BV9" s="145"/>
+      <c r="BX9" s="144" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -3915,8 +3915,8 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="CE9" s="146"/>
-      <c r="CG9" s="145" t="str">
+      <c r="CE9" s="145"/>
+      <c r="CG9" s="144" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -3935,8 +3935,8 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="CN9" s="146"/>
-      <c r="CP9" s="145" t="str">
+      <c r="CN9" s="145"/>
+      <c r="CP9" s="144" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -3955,8 +3955,8 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="CW9" s="146"/>
-      <c r="CY9" s="145" t="str">
+      <c r="CW9" s="145"/>
+      <c r="CY9" s="144" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -3975,8 +3975,8 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="DF9" s="146"/>
-      <c r="DH9" s="145" t="str">
+      <c r="DF9" s="145"/>
+      <c r="DH9" s="144" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -3995,8 +3995,8 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="DO9" s="146"/>
-      <c r="DQ9" s="145" t="str">
+      <c r="DO9" s="145"/>
+      <c r="DQ9" s="144" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -4015,8 +4015,8 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="DX9" s="146"/>
-      <c r="DZ9" s="145" t="str">
+      <c r="DX9" s="145"/>
+      <c r="DZ9" s="144" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -4035,8 +4035,8 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="EG9" s="146"/>
-      <c r="EI9" s="145" t="str">
+      <c r="EG9" s="145"/>
+      <c r="EI9" s="144" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -4055,8 +4055,8 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="EP9" s="146"/>
-      <c r="ER9" s="145" t="str">
+      <c r="EP9" s="145"/>
+      <c r="ER9" s="144" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -4075,8 +4075,8 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="EY9" s="146"/>
-      <c r="FA9" s="145" t="str">
+      <c r="EY9" s="145"/>
+      <c r="FA9" s="144" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -4095,7 +4095,7 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="FH9" s="146"/>
+      <c r="FH9" s="145"/>
     </row>
     <row r="10" spans="1:164" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -4553,7 +4553,7 @@
       </c>
       <c r="C11" s="75">
         <f t="shared" si="0"/>
-        <v>80.5</v>
+        <v>83</v>
       </c>
       <c r="D11" s="87">
         <f t="shared" si="0"/>
@@ -4924,7 +4924,7 @@
       </c>
       <c r="CZ11" s="77">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="DA11" s="88">
         <f t="shared" si="10"/>
@@ -4932,7 +4932,7 @@
       </c>
       <c r="DB11" s="77">
         <f t="shared" si="10"/>
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="DC11" s="88">
         <f t="shared" si="10"/>
@@ -5359,7 +5359,7 @@
       </c>
       <c r="C13" s="77">
         <f>SUM(E13,G13,I13,K13,N13,P13,R13,T13,W13,Y13,AA13,AC13,AF13,AH13,AJ13,AL13,AO13,AQ13,AS13,AU13,AX13,AZ13,BB13,BD13,BG13,BI13,BK13,BM13,BP13,BR13,BT13,BV13,BY13,CA13,CC13,CE13,CH13,CJ13,CL13,CN13,CQ13,CS13,CU13,CW13,CZ13,DB13,DD13,DF13,DI13,DK13,DM13,DO13,DR13,DT13,DV13,DX13,EA13,EC13,EE13,EG13,EJ13,EL13,EN13,EP13,ES13,EU13,EW13,EY13,FB13,FD13,FF13,FH13)</f>
-        <v>44</v>
+        <v>45.5</v>
       </c>
       <c r="D13" s="91">
         <v>4</v>
@@ -5490,11 +5490,11 @@
       <c r="CX13" s="95"/>
       <c r="CY13" s="91"/>
       <c r="CZ13" s="92">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="DA13" s="93"/>
       <c r="DB13" s="92">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="DC13" s="93"/>
       <c r="DD13" s="92"/>
@@ -5564,7 +5564,7 @@
       </c>
       <c r="C14" s="77">
         <f t="shared" ref="C14" si="17">SUM(E14,G14,I14,K14,N14,P14,R14,T14,W14,Y14,AA14,AC14,AF14,AH14,AJ14,AL14,AO14,AQ14,AS14,AU14,AX14,AZ14,BB14,BD14,BG14,BI14,BK14,BM14,BP14,BR14,BT14,BV14,BY14,CA14,CC14,CE14,CH14,CJ14,CL14,CN14,CQ14,CS14,CU14,CW14,CZ14,DB14,DD14,DF14,DI14,DK14,DM14,DO14,DR14,DT14,DV14,DX14,EA14,EC14,EE14,EG14,EJ14,EL14,EN14,EP14,ES14,EU14,EW14,EY14,FB14,FD14,FF14,FH14)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D14" s="91"/>
       <c r="E14" s="92"/>
@@ -5685,7 +5685,7 @@
       <c r="CZ14" s="92"/>
       <c r="DA14" s="93"/>
       <c r="DB14" s="92">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DC14" s="93"/>
       <c r="DD14" s="92"/>
@@ -20748,7 +20748,7 @@
       </c>
       <c r="CZ74" s="106">
         <f t="shared" si="197"/>
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="DA74" s="107">
         <f t="shared" si="197"/>
@@ -20756,7 +20756,7 @@
       </c>
       <c r="DB74" s="106">
         <f t="shared" si="197"/>
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="DC74" s="107">
         <f t="shared" si="197"/>
@@ -20983,7 +20983,7 @@
       </c>
       <c r="C75" s="86">
         <f>SUM(C11+C16+C23+C29+C32+C44+C48+C57+C65+C70)</f>
-        <v>406.5</v>
+        <v>409</v>
       </c>
       <c r="D75" s="83"/>
       <c r="E75" s="83"/>
@@ -21162,7 +21162,7 @@
       </c>
       <c r="DF75" s="113">
         <f>SUM(CZ74,DB74,DD74,DF74)</f>
-        <v>51.5</v>
+        <v>54</v>
       </c>
       <c r="DG75" s="111"/>
       <c r="DH75" s="83"/>
@@ -21344,36 +21344,36 @@
       <c r="B78" s="139" t="s">
         <v>106</v>
       </c>
-      <c r="C78" s="147"/>
-      <c r="D78" s="154" t="str">
+      <c r="C78" s="140"/>
+      <c r="D78" s="143" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
       <c r="E78" s="139"/>
       <c r="F78" s="139"/>
-      <c r="G78" s="147"/>
-      <c r="H78" s="154" t="str">
+      <c r="G78" s="140"/>
+      <c r="H78" s="143" t="str">
         <f>Details!$C$11</f>
         <v>Len</v>
       </c>
       <c r="I78" s="139"/>
       <c r="J78" s="139"/>
       <c r="K78" s="139"/>
-      <c r="L78" s="154" t="str">
+      <c r="L78" s="143" t="str">
         <f>Details!$C$12</f>
         <v>Al</v>
       </c>
       <c r="M78" s="139"/>
       <c r="N78" s="139"/>
-      <c r="O78" s="147"/>
-      <c r="P78" s="154" t="str">
+      <c r="O78" s="140"/>
+      <c r="P78" s="143" t="str">
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
       <c r="Q78" s="139"/>
       <c r="R78" s="139"/>
-      <c r="S78" s="147"/>
-      <c r="T78" s="154" t="s">
+      <c r="S78" s="140"/>
+      <c r="T78" s="143" t="s">
         <v>107</v>
       </c>
       <c r="U78" s="139"/>
@@ -21384,7 +21384,7 @@
       <c r="Z78" s="139"/>
       <c r="AA78" s="139"/>
       <c r="AB78" s="139"/>
-      <c r="AC78" s="147"/>
+      <c r="AC78" s="140"/>
       <c r="AD78" s="139" t="s">
         <v>108</v>
       </c>
@@ -21412,39 +21412,39 @@
       <c r="C79" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="D79" s="154" t="s">
+      <c r="D79" s="143" t="s">
         <v>46</v>
       </c>
       <c r="E79" s="139"/>
       <c r="F79" s="139" t="s">
         <v>47</v>
       </c>
-      <c r="G79" s="147"/>
-      <c r="H79" s="154" t="s">
+      <c r="G79" s="140"/>
+      <c r="H79" s="143" t="s">
         <v>46</v>
       </c>
       <c r="I79" s="139"/>
       <c r="J79" s="139" t="s">
         <v>47</v>
       </c>
-      <c r="K79" s="147"/>
-      <c r="L79" s="154" t="s">
+      <c r="K79" s="140"/>
+      <c r="L79" s="143" t="s">
         <v>46</v>
       </c>
       <c r="M79" s="139"/>
       <c r="N79" s="139" t="s">
         <v>47</v>
       </c>
-      <c r="O79" s="147"/>
-      <c r="P79" s="154" t="s">
+      <c r="O79" s="140"/>
+      <c r="P79" s="143" t="s">
         <v>46</v>
       </c>
       <c r="Q79" s="139"/>
       <c r="R79" s="139" t="s">
         <v>47</v>
       </c>
-      <c r="S79" s="147"/>
-      <c r="T79" s="154" t="str">
+      <c r="S79" s="140"/>
+      <c r="T79" s="143" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -21467,8 +21467,8 @@
       <c r="AB79" s="139" t="s">
         <v>44</v>
       </c>
-      <c r="AC79" s="147"/>
-      <c r="AD79" s="154" t="s">
+      <c r="AC79" s="140"/>
+      <c r="AD79" s="143" t="s">
         <v>109</v>
       </c>
       <c r="AE79" s="139"/>
@@ -21480,10 +21480,10 @@
       <c r="AI79" s="139"/>
       <c r="AJ79" s="139"/>
       <c r="AK79" s="139"/>
-      <c r="AL79" s="143" t="s">
+      <c r="AL79" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="AM79" s="143"/>
+      <c r="AM79" s="163"/>
     </row>
     <row r="80" spans="1:164" s="11" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="str">
@@ -21498,96 +21498,96 @@
         <f>SUM($K$75)</f>
         <v>10.5</v>
       </c>
-      <c r="D80" s="136">
+      <c r="D80" s="137">
         <f>SUM(D74)</f>
         <v>4</v>
       </c>
-      <c r="E80" s="136"/>
-      <c r="F80" s="136">
+      <c r="E80" s="137"/>
+      <c r="F80" s="137">
         <f>SUM(E74)</f>
         <v>4</v>
       </c>
-      <c r="G80" s="137"/>
-      <c r="H80" s="136">
+      <c r="G80" s="138"/>
+      <c r="H80" s="137">
         <f>SUM(F74)</f>
         <v>3</v>
       </c>
-      <c r="I80" s="136"/>
-      <c r="J80" s="136">
+      <c r="I80" s="137"/>
+      <c r="J80" s="137">
         <f>SUM(G74)</f>
         <v>4.5</v>
       </c>
-      <c r="K80" s="137"/>
-      <c r="L80" s="136">
+      <c r="K80" s="138"/>
+      <c r="L80" s="137">
         <f>SUM(H74)</f>
         <v>1</v>
       </c>
-      <c r="M80" s="136"/>
-      <c r="N80" s="136">
+      <c r="M80" s="137"/>
+      <c r="N80" s="137">
         <f>SUM(I74)</f>
         <v>2</v>
       </c>
-      <c r="O80" s="137"/>
-      <c r="P80" s="136">
+      <c r="O80" s="138"/>
+      <c r="P80" s="137">
         <f>SUM(J74)</f>
         <v>0</v>
       </c>
-      <c r="Q80" s="136"/>
-      <c r="R80" s="136">
+      <c r="Q80" s="137"/>
+      <c r="R80" s="137">
         <f>SUM(K74)</f>
         <v>0</v>
       </c>
-      <c r="S80" s="137"/>
-      <c r="T80" s="136">
+      <c r="S80" s="138"/>
+      <c r="T80" s="137">
         <f>SUM(F80-D80)</f>
         <v>0</v>
       </c>
-      <c r="U80" s="136"/>
-      <c r="V80" s="136">
+      <c r="U80" s="137"/>
+      <c r="V80" s="137">
         <f>SUM(J80-H80)</f>
         <v>1.5</v>
       </c>
-      <c r="W80" s="136"/>
-      <c r="X80" s="136">
+      <c r="W80" s="137"/>
+      <c r="X80" s="137">
         <f>SUM(N80-L80)</f>
         <v>1</v>
       </c>
-      <c r="Y80" s="136"/>
-      <c r="Z80" s="136">
+      <c r="Y80" s="137"/>
+      <c r="Z80" s="137">
         <f t="shared" ref="Z80:Z88" si="204">SUM(P80-R80)</f>
         <v>0</v>
       </c>
-      <c r="AA80" s="136"/>
-      <c r="AB80" s="136">
+      <c r="AA80" s="137"/>
+      <c r="AB80" s="137">
         <f>SUM(V80+T80+X80+Z80)</f>
         <v>2.5</v>
       </c>
-      <c r="AC80" s="137"/>
-      <c r="AD80" s="142">
+      <c r="AC80" s="138"/>
+      <c r="AD80" s="136">
         <f>SUM(T80)</f>
         <v>0</v>
       </c>
-      <c r="AE80" s="142"/>
-      <c r="AF80" s="142">
+      <c r="AE80" s="136"/>
+      <c r="AF80" s="136">
         <f>SUM(V80)</f>
         <v>1.5</v>
       </c>
-      <c r="AG80" s="142"/>
-      <c r="AH80" s="142">
+      <c r="AG80" s="136"/>
+      <c r="AH80" s="136">
         <f>SUM(X80)</f>
         <v>1</v>
       </c>
-      <c r="AI80" s="142"/>
-      <c r="AJ80" s="142">
+      <c r="AI80" s="136"/>
+      <c r="AJ80" s="136">
         <f>SUM(Z80)</f>
         <v>0</v>
       </c>
-      <c r="AK80" s="142"/>
-      <c r="AL80" s="142">
+      <c r="AK80" s="136"/>
+      <c r="AL80" s="136">
         <f>SUM(AB80)</f>
         <v>2.5</v>
       </c>
-      <c r="AM80" s="142"/>
+      <c r="AM80" s="136"/>
     </row>
     <row r="81" spans="1:39" s="11" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="str">
@@ -21602,96 +21602,96 @@
         <f>SUM($T$75+($AC$75/2))</f>
         <v>37.75</v>
       </c>
-      <c r="D81" s="135">
+      <c r="D81" s="142">
         <f>SUM(M74+(V74/2))</f>
         <v>4.5</v>
       </c>
-      <c r="E81" s="136"/>
-      <c r="F81" s="136">
+      <c r="E81" s="137"/>
+      <c r="F81" s="137">
         <f>SUM(N74+(W74/2))</f>
         <v>13</v>
       </c>
-      <c r="G81" s="137"/>
-      <c r="H81" s="135">
+      <c r="G81" s="138"/>
+      <c r="H81" s="142">
         <f>SUM(O74+(X74/2))</f>
         <v>9.5</v>
       </c>
-      <c r="I81" s="136"/>
-      <c r="J81" s="136">
+      <c r="I81" s="137"/>
+      <c r="J81" s="137">
         <f>SUM(P74+(Y74/2))</f>
         <v>11.75</v>
       </c>
-      <c r="K81" s="137"/>
-      <c r="L81" s="136">
+      <c r="K81" s="138"/>
+      <c r="L81" s="137">
         <f>SUM(Q74+(Z74/2))</f>
         <v>4.5</v>
       </c>
-      <c r="M81" s="136"/>
-      <c r="N81" s="136">
+      <c r="M81" s="137"/>
+      <c r="N81" s="137">
         <f>SUM(R74+(AA74/2))</f>
         <v>9</v>
       </c>
-      <c r="O81" s="137"/>
-      <c r="P81" s="136">
+      <c r="O81" s="138"/>
+      <c r="P81" s="137">
         <f>SUM(S74+(AB74/2))</f>
         <v>4.5</v>
       </c>
-      <c r="Q81" s="136"/>
-      <c r="R81" s="136">
+      <c r="Q81" s="137"/>
+      <c r="R81" s="137">
         <f>SUM(T74+(AC74/2))</f>
         <v>4</v>
       </c>
-      <c r="S81" s="137"/>
-      <c r="T81" s="135">
+      <c r="S81" s="138"/>
+      <c r="T81" s="142">
         <f>SUM(F81-D81)</f>
         <v>8.5</v>
       </c>
-      <c r="U81" s="136"/>
-      <c r="V81" s="136">
+      <c r="U81" s="137"/>
+      <c r="V81" s="137">
         <f>SUM(J81-H81)</f>
         <v>2.25</v>
       </c>
-      <c r="W81" s="136"/>
-      <c r="X81" s="136">
+      <c r="W81" s="137"/>
+      <c r="X81" s="137">
         <f>SUM(N81-L81)</f>
         <v>4.5</v>
       </c>
-      <c r="Y81" s="136"/>
-      <c r="Z81" s="136">
+      <c r="Y81" s="137"/>
+      <c r="Z81" s="137">
         <f t="shared" si="204"/>
         <v>0.5</v>
       </c>
-      <c r="AA81" s="136"/>
-      <c r="AB81" s="136">
+      <c r="AA81" s="137"/>
+      <c r="AB81" s="137">
         <f t="shared" ref="AB81:AB88" si="205">SUM(V81+T81+X81+Z81)</f>
         <v>15.75</v>
       </c>
-      <c r="AC81" s="137"/>
-      <c r="AD81" s="142">
+      <c r="AC81" s="138"/>
+      <c r="AD81" s="136">
         <f>SUM(T81+AD80)</f>
         <v>8.5</v>
       </c>
-      <c r="AE81" s="142"/>
-      <c r="AF81" s="142">
+      <c r="AE81" s="136"/>
+      <c r="AF81" s="136">
         <f t="shared" ref="AF81:AF88" si="206">SUM(V81+AF80)</f>
         <v>3.75</v>
       </c>
-      <c r="AG81" s="142"/>
-      <c r="AH81" s="142">
+      <c r="AG81" s="136"/>
+      <c r="AH81" s="136">
         <f t="shared" ref="AH81:AH88" si="207">SUM(X81+AH80)</f>
         <v>5.5</v>
       </c>
-      <c r="AI81" s="142"/>
-      <c r="AJ81" s="142">
+      <c r="AI81" s="136"/>
+      <c r="AJ81" s="136">
         <f t="shared" ref="AJ81:AJ88" si="208">SUM(Z81+AJ80)</f>
         <v>0.5</v>
       </c>
-      <c r="AK81" s="142"/>
-      <c r="AL81" s="142">
+      <c r="AK81" s="136"/>
+      <c r="AL81" s="136">
         <f>SUM(AB81+AL80)</f>
         <v>18.25</v>
       </c>
-      <c r="AM81" s="142"/>
+      <c r="AM81" s="136"/>
     </row>
     <row r="82" spans="1:39" s="11" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="str">
@@ -21706,96 +21706,96 @@
         <f>SUM(($AC$75/2) + ($AL$75/2))</f>
         <v>42.25</v>
       </c>
-      <c r="D82" s="135">
+      <c r="D82" s="142">
         <f>SUM((V74/2)+(AE74/2))</f>
         <v>7</v>
       </c>
-      <c r="E82" s="136"/>
-      <c r="F82" s="136">
+      <c r="E82" s="137"/>
+      <c r="F82" s="137">
         <f>SUM((W74/2)+(AF74/2))</f>
         <v>12.5</v>
       </c>
-      <c r="G82" s="137"/>
-      <c r="H82" s="135">
+      <c r="G82" s="138"/>
+      <c r="H82" s="142">
         <f>SUM((X74/2)+(AG74/2))</f>
         <v>7</v>
       </c>
-      <c r="I82" s="136"/>
-      <c r="J82" s="136">
+      <c r="I82" s="137"/>
+      <c r="J82" s="137">
         <f>SUM((Y74/2)+(AH74/2))</f>
         <v>11.25</v>
       </c>
-      <c r="K82" s="137"/>
-      <c r="L82" s="135">
+      <c r="K82" s="138"/>
+      <c r="L82" s="142">
         <f>SUM((Z74/2)+(AI74/2))</f>
         <v>7</v>
       </c>
-      <c r="M82" s="136"/>
-      <c r="N82" s="136">
+      <c r="M82" s="137"/>
+      <c r="N82" s="137">
         <f>SUM((AA74/2)+(AJ74/2))</f>
         <v>11.5</v>
       </c>
-      <c r="O82" s="137"/>
-      <c r="P82" s="135">
+      <c r="O82" s="138"/>
+      <c r="P82" s="142">
         <f>SUM((AB74/2)+(AK74/2))</f>
         <v>7</v>
       </c>
-      <c r="Q82" s="136"/>
-      <c r="R82" s="136">
+      <c r="Q82" s="137"/>
+      <c r="R82" s="137">
         <f>SUM((AC74/2)+(AL74/2))</f>
         <v>7</v>
       </c>
-      <c r="S82" s="137"/>
-      <c r="T82" s="135">
+      <c r="S82" s="138"/>
+      <c r="T82" s="142">
         <f>SUM(F82-D82)</f>
         <v>5.5</v>
       </c>
-      <c r="U82" s="136"/>
-      <c r="V82" s="136">
+      <c r="U82" s="137"/>
+      <c r="V82" s="137">
         <f>SUM(J82-H82)</f>
         <v>4.25</v>
       </c>
-      <c r="W82" s="136"/>
-      <c r="X82" s="136">
+      <c r="W82" s="137"/>
+      <c r="X82" s="137">
         <f>SUM(N82-L82)</f>
         <v>4.5</v>
       </c>
-      <c r="Y82" s="136"/>
-      <c r="Z82" s="136">
+      <c r="Y82" s="137"/>
+      <c r="Z82" s="137">
         <f t="shared" si="204"/>
         <v>0</v>
       </c>
-      <c r="AA82" s="136"/>
-      <c r="AB82" s="136">
+      <c r="AA82" s="137"/>
+      <c r="AB82" s="137">
         <f t="shared" si="205"/>
         <v>14.25</v>
       </c>
-      <c r="AC82" s="137"/>
-      <c r="AD82" s="142">
+      <c r="AC82" s="138"/>
+      <c r="AD82" s="136">
         <f t="shared" ref="AD82:AD87" si="209">SUM(T82+AD81)</f>
         <v>14</v>
       </c>
-      <c r="AE82" s="142"/>
-      <c r="AF82" s="142">
+      <c r="AE82" s="136"/>
+      <c r="AF82" s="136">
         <f t="shared" si="206"/>
         <v>8</v>
       </c>
-      <c r="AG82" s="142"/>
-      <c r="AH82" s="142">
+      <c r="AG82" s="136"/>
+      <c r="AH82" s="136">
         <f t="shared" si="207"/>
         <v>10</v>
       </c>
-      <c r="AI82" s="142"/>
-      <c r="AJ82" s="142">
+      <c r="AI82" s="136"/>
+      <c r="AJ82" s="136">
         <f t="shared" si="208"/>
         <v>0.5</v>
       </c>
-      <c r="AK82" s="142"/>
-      <c r="AL82" s="142">
+      <c r="AK82" s="136"/>
+      <c r="AL82" s="136">
         <f>SUM(AB82+AL81)</f>
         <v>32.5</v>
       </c>
-      <c r="AM82" s="142"/>
+      <c r="AM82" s="136"/>
     </row>
     <row r="83" spans="1:39" s="11" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="str">
@@ -21810,96 +21810,96 @@
         <f>SUM(($AL$75/2)+$AU$75+$BD$75+$BM$75+$BV$75+($CE$75/2))</f>
         <v>154</v>
       </c>
-      <c r="D83" s="135">
+      <c r="D83" s="142">
         <f>SUM((AE74/2)+AN74+AW74+BF74+BO74+(BX74/2))</f>
         <v>42.125</v>
       </c>
-      <c r="E83" s="136"/>
-      <c r="F83" s="136">
+      <c r="E83" s="137"/>
+      <c r="F83" s="137">
         <f>SUM((AF74/2)+AO74+AX74+BG74+BP74+(BY74/2))</f>
         <v>30.75</v>
       </c>
-      <c r="G83" s="137"/>
-      <c r="H83" s="135">
+      <c r="G83" s="138"/>
+      <c r="H83" s="142">
         <f>SUM((AG74/2)+AP74+AY74+BH74+BQ74+(BZ74/2))</f>
         <v>47.125</v>
       </c>
-      <c r="I83" s="136"/>
-      <c r="J83" s="136">
+      <c r="I83" s="137"/>
+      <c r="J83" s="137">
         <f>SUM((AH74/2)+AQ74+AZ74+BI74+BR74+(CA74/2))</f>
         <v>33.5</v>
       </c>
-      <c r="K83" s="137"/>
-      <c r="L83" s="135">
+      <c r="K83" s="138"/>
+      <c r="L83" s="142">
         <f>SUM((AI74/2)+AR74+BA74+BJ74+BS74+(CB74/2))</f>
         <v>95.125</v>
       </c>
-      <c r="M83" s="136"/>
-      <c r="N83" s="136">
+      <c r="M83" s="137"/>
+      <c r="N83" s="137">
         <f>SUM((AJ74/2)+AS74+BB74+BK74+BT74+(CC74/2))</f>
         <v>53.75</v>
       </c>
-      <c r="O83" s="137"/>
-      <c r="P83" s="135">
+      <c r="O83" s="138"/>
+      <c r="P83" s="142">
         <f>SUM((AK74/2)+AT74+BC74+BL74+BU74+(CD74/2))</f>
         <v>65.125</v>
       </c>
-      <c r="Q83" s="136"/>
-      <c r="R83" s="136">
+      <c r="Q83" s="137"/>
+      <c r="R83" s="137">
         <f>SUM((AL74/2)+AU74+BD74+BM74+BV74+(CE74/2))</f>
         <v>36</v>
       </c>
-      <c r="S83" s="137"/>
-      <c r="T83" s="135">
+      <c r="S83" s="138"/>
+      <c r="T83" s="142">
         <f t="shared" ref="T83:T87" si="210">SUM(F83-D83)</f>
         <v>-11.375</v>
       </c>
-      <c r="U83" s="136"/>
-      <c r="V83" s="136">
+      <c r="U83" s="137"/>
+      <c r="V83" s="137">
         <f t="shared" ref="V83:V88" si="211">SUM(J83-H83)</f>
         <v>-13.625</v>
       </c>
-      <c r="W83" s="136"/>
-      <c r="X83" s="136">
+      <c r="W83" s="137"/>
+      <c r="X83" s="137">
         <f t="shared" ref="X83:X88" si="212">SUM(N83-L83)</f>
         <v>-41.375</v>
       </c>
-      <c r="Y83" s="136"/>
-      <c r="Z83" s="136">
+      <c r="Y83" s="137"/>
+      <c r="Z83" s="137">
         <f t="shared" si="204"/>
         <v>29.125</v>
       </c>
-      <c r="AA83" s="136"/>
-      <c r="AB83" s="136">
+      <c r="AA83" s="137"/>
+      <c r="AB83" s="137">
         <f t="shared" si="205"/>
         <v>-37.25</v>
       </c>
-      <c r="AC83" s="137"/>
-      <c r="AD83" s="142">
+      <c r="AC83" s="138"/>
+      <c r="AD83" s="136">
         <f t="shared" si="209"/>
         <v>2.625</v>
       </c>
-      <c r="AE83" s="142"/>
-      <c r="AF83" s="142">
+      <c r="AE83" s="136"/>
+      <c r="AF83" s="136">
         <f t="shared" si="206"/>
         <v>-5.625</v>
       </c>
-      <c r="AG83" s="142"/>
-      <c r="AH83" s="142">
+      <c r="AG83" s="136"/>
+      <c r="AH83" s="136">
         <f t="shared" si="207"/>
         <v>-31.375</v>
       </c>
-      <c r="AI83" s="142"/>
-      <c r="AJ83" s="142">
+      <c r="AI83" s="136"/>
+      <c r="AJ83" s="136">
         <f t="shared" si="208"/>
         <v>29.625</v>
       </c>
-      <c r="AK83" s="142"/>
-      <c r="AL83" s="142">
+      <c r="AK83" s="136"/>
+      <c r="AL83" s="136">
         <f t="shared" ref="AL83:AL88" si="213">SUM(AB83+AL82)</f>
         <v>-4.75</v>
       </c>
-      <c r="AM83" s="142"/>
+      <c r="AM83" s="136"/>
     </row>
     <row r="84" spans="1:39" s="11" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="str">
@@ -21914,96 +21914,96 @@
         <f>SUM(($CE$75/2)+$CN$75+($CW$75/2))</f>
         <v>90.75</v>
       </c>
-      <c r="D84" s="135">
+      <c r="D84" s="142">
         <f>SUM((BX74/2)+CG74+(CP74/2))</f>
         <v>16.125</v>
       </c>
-      <c r="E84" s="136"/>
-      <c r="F84" s="136">
+      <c r="E84" s="137"/>
+      <c r="F84" s="137">
         <f>SUM((BY74/2)+CH74+(CQ74/2))</f>
         <v>23</v>
       </c>
-      <c r="G84" s="137"/>
-      <c r="H84" s="135">
+      <c r="G84" s="138"/>
+      <c r="H84" s="142">
         <f>SUM((BZ74/2)+CI74+(CR74/2))</f>
         <v>16.125</v>
       </c>
-      <c r="I84" s="136"/>
-      <c r="J84" s="136">
+      <c r="I84" s="137"/>
+      <c r="J84" s="137">
         <f>SUM((CA74/2)+CJ74+(CS74/2))</f>
         <v>30.5</v>
       </c>
-      <c r="K84" s="137"/>
-      <c r="L84" s="135">
+      <c r="K84" s="138"/>
+      <c r="L84" s="142">
         <f>SUM((CB74/2)+CK74+(CT74/2))</f>
         <v>16.125</v>
       </c>
-      <c r="M84" s="136"/>
-      <c r="N84" s="136">
+      <c r="M84" s="137"/>
+      <c r="N84" s="137">
         <f>SUM((CC74/2)+CL74+(CU74/2))</f>
         <v>24.75</v>
       </c>
-      <c r="O84" s="137"/>
-      <c r="P84" s="135">
+      <c r="O84" s="138"/>
+      <c r="P84" s="142">
         <f>SUM((CD74/2)+CM74+(CV74/2))</f>
         <v>16.125</v>
       </c>
-      <c r="Q84" s="136"/>
-      <c r="R84" s="136">
+      <c r="Q84" s="137"/>
+      <c r="R84" s="137">
         <f>SUM((CE74/2)+CN74+(CW74/2))</f>
         <v>12.5</v>
       </c>
-      <c r="S84" s="137"/>
-      <c r="T84" s="135">
+      <c r="S84" s="138"/>
+      <c r="T84" s="142">
         <f>SUM(F84-D84)</f>
         <v>6.875</v>
       </c>
-      <c r="U84" s="136"/>
-      <c r="V84" s="136">
+      <c r="U84" s="137"/>
+      <c r="V84" s="137">
         <f>SUM(J84-H84)</f>
         <v>14.375</v>
       </c>
-      <c r="W84" s="136"/>
-      <c r="X84" s="136">
+      <c r="W84" s="137"/>
+      <c r="X84" s="137">
         <f>SUM(N84-L84)</f>
         <v>8.625</v>
       </c>
-      <c r="Y84" s="136"/>
-      <c r="Z84" s="136">
+      <c r="Y84" s="137"/>
+      <c r="Z84" s="137">
         <f t="shared" si="204"/>
         <v>3.625</v>
       </c>
-      <c r="AA84" s="136"/>
-      <c r="AB84" s="136">
+      <c r="AA84" s="137"/>
+      <c r="AB84" s="137">
         <f>SUM(V84+T84+X84+Z84)</f>
         <v>33.5</v>
       </c>
-      <c r="AC84" s="137"/>
-      <c r="AD84" s="142">
+      <c r="AC84" s="138"/>
+      <c r="AD84" s="136">
         <f t="shared" si="209"/>
         <v>9.5</v>
       </c>
-      <c r="AE84" s="142"/>
-      <c r="AF84" s="142">
+      <c r="AE84" s="136"/>
+      <c r="AF84" s="136">
         <f t="shared" si="206"/>
         <v>8.75</v>
       </c>
-      <c r="AG84" s="142"/>
-      <c r="AH84" s="142">
+      <c r="AG84" s="136"/>
+      <c r="AH84" s="136">
         <f t="shared" si="207"/>
         <v>-22.75</v>
       </c>
-      <c r="AI84" s="142"/>
-      <c r="AJ84" s="142">
+      <c r="AI84" s="136"/>
+      <c r="AJ84" s="136">
         <f t="shared" si="208"/>
         <v>33.25</v>
       </c>
-      <c r="AK84" s="142"/>
-      <c r="AL84" s="142">
+      <c r="AK84" s="136"/>
+      <c r="AL84" s="136">
         <f t="shared" si="213"/>
         <v>28.75</v>
       </c>
-      <c r="AM84" s="142"/>
+      <c r="AM84" s="136"/>
     </row>
     <row r="85" spans="1:39" s="11" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="str">
@@ -22016,98 +22016,98 @@
       </c>
       <c r="C85" s="120">
         <f>SUM(($CW$75/2)+$DF$75+$DO$75+($DX$75/2))</f>
-        <v>72.75</v>
-      </c>
-      <c r="D85" s="135">
+        <v>75.25</v>
+      </c>
+      <c r="D85" s="142">
         <f>SUM((CP74/2)+CY74+DH74+(DQ74/2))</f>
         <v>22.25</v>
       </c>
-      <c r="E85" s="136"/>
-      <c r="F85" s="136">
+      <c r="E85" s="137"/>
+      <c r="F85" s="137">
         <f>SUM((CQ74/2)+CZ74+DI74+(DR74/2))</f>
-        <v>16.75</v>
-      </c>
-      <c r="G85" s="137"/>
-      <c r="H85" s="135">
+        <v>17.75</v>
+      </c>
+      <c r="G85" s="138"/>
+      <c r="H85" s="142">
         <f>SUM((CR74/2)+DA74+DJ74+(DS74/2))</f>
         <v>22.25</v>
       </c>
-      <c r="I85" s="136"/>
-      <c r="J85" s="136">
+      <c r="I85" s="137"/>
+      <c r="J85" s="137">
         <f>SUM((CS74/2)+DB74+DK74+(DT74/2))</f>
-        <v>21.5</v>
-      </c>
-      <c r="K85" s="137"/>
-      <c r="L85" s="135">
+        <v>23</v>
+      </c>
+      <c r="K85" s="138"/>
+      <c r="L85" s="142">
         <f>SUM((CT74/2)+DC74+DL74+(DU74/2))</f>
         <v>22.25</v>
       </c>
-      <c r="M85" s="136"/>
-      <c r="N85" s="136">
+      <c r="M85" s="137"/>
+      <c r="N85" s="137">
         <f>SUM((CU74/2)+DD74+DM74+(DV74/2))</f>
         <v>17</v>
       </c>
-      <c r="O85" s="137"/>
-      <c r="P85" s="135">
+      <c r="O85" s="138"/>
+      <c r="P85" s="142">
         <f>SUM((CV74/2)+DE74+DN74+(DW74/2))</f>
         <v>22.25</v>
       </c>
-      <c r="Q85" s="136"/>
-      <c r="R85" s="136">
+      <c r="Q85" s="137"/>
+      <c r="R85" s="137">
         <f>SUM((CW74/2)+DF74+DO74+(DX74/2))</f>
         <v>17.5</v>
       </c>
-      <c r="S85" s="137"/>
-      <c r="T85" s="135">
+      <c r="S85" s="138"/>
+      <c r="T85" s="142">
         <f t="shared" si="210"/>
-        <v>-5.5</v>
-      </c>
-      <c r="U85" s="136"/>
-      <c r="V85" s="136">
+        <v>-4.5</v>
+      </c>
+      <c r="U85" s="137"/>
+      <c r="V85" s="137">
         <f t="shared" si="211"/>
-        <v>-0.75</v>
-      </c>
-      <c r="W85" s="136"/>
-      <c r="X85" s="136">
+        <v>0.75</v>
+      </c>
+      <c r="W85" s="137"/>
+      <c r="X85" s="137">
         <f t="shared" si="212"/>
         <v>-5.25</v>
       </c>
-      <c r="Y85" s="136"/>
-      <c r="Z85" s="136">
+      <c r="Y85" s="137"/>
+      <c r="Z85" s="137">
         <f t="shared" si="204"/>
         <v>4.75</v>
       </c>
-      <c r="AA85" s="136"/>
-      <c r="AB85" s="136">
+      <c r="AA85" s="137"/>
+      <c r="AB85" s="137">
         <f>SUM(V85+T85+X85+Z85)</f>
-        <v>-6.75</v>
-      </c>
-      <c r="AC85" s="137"/>
-      <c r="AD85" s="142">
+        <v>-4.25</v>
+      </c>
+      <c r="AC85" s="138"/>
+      <c r="AD85" s="136">
         <f t="shared" si="209"/>
-        <v>4</v>
-      </c>
-      <c r="AE85" s="142"/>
-      <c r="AF85" s="142">
+        <v>5</v>
+      </c>
+      <c r="AE85" s="136"/>
+      <c r="AF85" s="136">
         <f t="shared" si="206"/>
-        <v>8</v>
-      </c>
-      <c r="AG85" s="142"/>
-      <c r="AH85" s="142">
+        <v>9.5</v>
+      </c>
+      <c r="AG85" s="136"/>
+      <c r="AH85" s="136">
         <f t="shared" si="207"/>
         <v>-28</v>
       </c>
-      <c r="AI85" s="142"/>
-      <c r="AJ85" s="142">
+      <c r="AI85" s="136"/>
+      <c r="AJ85" s="136">
         <f t="shared" si="208"/>
         <v>38</v>
       </c>
-      <c r="AK85" s="142"/>
-      <c r="AL85" s="142">
+      <c r="AK85" s="136"/>
+      <c r="AL85" s="136">
         <f t="shared" si="213"/>
-        <v>22</v>
-      </c>
-      <c r="AM85" s="142"/>
+        <v>24.5</v>
+      </c>
+      <c r="AM85" s="136"/>
     </row>
     <row r="86" spans="1:39" s="11" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="str">
@@ -22122,96 +22122,96 @@
         <f>SUM(($DX$75/2)+($EG$75/2))</f>
         <v>0</v>
       </c>
-      <c r="D86" s="135">
+      <c r="D86" s="142">
         <f>SUM((DQ74/2)+(DZ74/2))</f>
         <v>2.125</v>
       </c>
-      <c r="E86" s="136"/>
-      <c r="F86" s="136">
+      <c r="E86" s="137"/>
+      <c r="F86" s="137">
         <f>SUM((DR74/2)+(EA74/2))</f>
         <v>0</v>
       </c>
-      <c r="G86" s="137"/>
-      <c r="H86" s="135">
+      <c r="G86" s="138"/>
+      <c r="H86" s="142">
         <f>SUM((DS74/2)+(EB74/2))</f>
         <v>2.125</v>
       </c>
-      <c r="I86" s="136"/>
-      <c r="J86" s="136">
+      <c r="I86" s="137"/>
+      <c r="J86" s="137">
         <f>SUM((DT74/2)+(EC74/2))</f>
         <v>0</v>
       </c>
-      <c r="K86" s="137"/>
-      <c r="L86" s="135">
+      <c r="K86" s="138"/>
+      <c r="L86" s="142">
         <f>SUM((DU74/2)+(ED74/2))</f>
         <v>2.125</v>
       </c>
-      <c r="M86" s="136"/>
-      <c r="N86" s="136">
+      <c r="M86" s="137"/>
+      <c r="N86" s="137">
         <f>SUM((DV74/2)+(EE74/2))</f>
         <v>0</v>
       </c>
-      <c r="O86" s="137"/>
-      <c r="P86" s="135">
+      <c r="O86" s="138"/>
+      <c r="P86" s="142">
         <f>SUM((DW74/2)+(EF74/2))</f>
         <v>2.125</v>
       </c>
-      <c r="Q86" s="136"/>
-      <c r="R86" s="136">
+      <c r="Q86" s="137"/>
+      <c r="R86" s="137">
         <f>SUM((DX74/2)+(EG74/2))</f>
         <v>0</v>
       </c>
-      <c r="S86" s="137"/>
-      <c r="T86" s="135">
+      <c r="S86" s="138"/>
+      <c r="T86" s="142">
         <f t="shared" si="210"/>
         <v>-2.125</v>
       </c>
-      <c r="U86" s="136"/>
-      <c r="V86" s="136">
+      <c r="U86" s="137"/>
+      <c r="V86" s="137">
         <f t="shared" si="211"/>
         <v>-2.125</v>
       </c>
-      <c r="W86" s="136"/>
-      <c r="X86" s="136">
+      <c r="W86" s="137"/>
+      <c r="X86" s="137">
         <f t="shared" si="212"/>
         <v>-2.125</v>
       </c>
-      <c r="Y86" s="136"/>
-      <c r="Z86" s="136">
+      <c r="Y86" s="137"/>
+      <c r="Z86" s="137">
         <f t="shared" si="204"/>
         <v>2.125</v>
       </c>
-      <c r="AA86" s="136"/>
-      <c r="AB86" s="136">
+      <c r="AA86" s="137"/>
+      <c r="AB86" s="137">
         <f t="shared" si="205"/>
         <v>-4.25</v>
       </c>
-      <c r="AC86" s="137"/>
-      <c r="AD86" s="142">
+      <c r="AC86" s="138"/>
+      <c r="AD86" s="136">
         <f>SUM(T86+AD85)</f>
-        <v>1.875</v>
-      </c>
-      <c r="AE86" s="142"/>
-      <c r="AF86" s="142">
+        <v>2.875</v>
+      </c>
+      <c r="AE86" s="136"/>
+      <c r="AF86" s="136">
         <f t="shared" si="206"/>
-        <v>5.875</v>
-      </c>
-      <c r="AG86" s="142"/>
-      <c r="AH86" s="142">
+        <v>7.375</v>
+      </c>
+      <c r="AG86" s="136"/>
+      <c r="AH86" s="136">
         <f t="shared" si="207"/>
         <v>-30.125</v>
       </c>
-      <c r="AI86" s="142"/>
-      <c r="AJ86" s="142">
+      <c r="AI86" s="136"/>
+      <c r="AJ86" s="136">
         <f t="shared" si="208"/>
         <v>40.125</v>
       </c>
-      <c r="AK86" s="142"/>
-      <c r="AL86" s="142">
+      <c r="AK86" s="136"/>
+      <c r="AL86" s="136">
         <f t="shared" si="213"/>
-        <v>17.75</v>
-      </c>
-      <c r="AM86" s="142"/>
+        <v>20.25</v>
+      </c>
+      <c r="AM86" s="136"/>
     </row>
     <row r="87" spans="1:39" s="11" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
@@ -22225,96 +22225,96 @@
         <f>SUM(($EG$75/2)+$EP$75+$EY$75+$FH$75)</f>
         <v>0</v>
       </c>
-      <c r="D87" s="135">
+      <c r="D87" s="142">
         <f>SUM((DZ74/2)+EI74+ER74+FA74)</f>
         <v>7.875</v>
       </c>
-      <c r="E87" s="136"/>
-      <c r="F87" s="136">
+      <c r="E87" s="137"/>
+      <c r="F87" s="137">
         <f>SUM((EA74/2)+EJ74+ES74+FB74)</f>
         <v>0</v>
       </c>
-      <c r="G87" s="137"/>
-      <c r="H87" s="135">
+      <c r="G87" s="138"/>
+      <c r="H87" s="142">
         <f>SUM((EB74/2)+EK74+ET74+FC74)</f>
         <v>7.875</v>
       </c>
-      <c r="I87" s="136"/>
-      <c r="J87" s="136">
+      <c r="I87" s="137"/>
+      <c r="J87" s="137">
         <f>SUM((EC74/2)+EL74+EU74+FD74)</f>
         <v>0</v>
       </c>
-      <c r="K87" s="137"/>
-      <c r="L87" s="135">
+      <c r="K87" s="138"/>
+      <c r="L87" s="142">
         <f>SUM((ED74/2)+EM74+EV74+FE74)</f>
         <v>7.875</v>
       </c>
-      <c r="M87" s="136"/>
-      <c r="N87" s="136">
+      <c r="M87" s="137"/>
+      <c r="N87" s="137">
         <f>SUM((EE74/2)+EN74+EW74+FF74)</f>
         <v>0</v>
       </c>
-      <c r="O87" s="137"/>
-      <c r="P87" s="135">
+      <c r="O87" s="138"/>
+      <c r="P87" s="142">
         <f>SUM((EF74/2)+EO74+EX74+FG74)</f>
         <v>7.875</v>
       </c>
-      <c r="Q87" s="136"/>
-      <c r="R87" s="136">
+      <c r="Q87" s="137"/>
+      <c r="R87" s="137">
         <f>SUM((EG74/2)+EP74+EY74+FH74)</f>
         <v>0</v>
       </c>
-      <c r="S87" s="137"/>
-      <c r="T87" s="135">
+      <c r="S87" s="138"/>
+      <c r="T87" s="142">
         <f t="shared" si="210"/>
         <v>-7.875</v>
       </c>
-      <c r="U87" s="136"/>
-      <c r="V87" s="136">
+      <c r="U87" s="137"/>
+      <c r="V87" s="137">
         <f t="shared" si="211"/>
         <v>-7.875</v>
       </c>
-      <c r="W87" s="136"/>
-      <c r="X87" s="136">
+      <c r="W87" s="137"/>
+      <c r="X87" s="137">
         <f t="shared" si="212"/>
         <v>-7.875</v>
       </c>
-      <c r="Y87" s="136"/>
-      <c r="Z87" s="136">
+      <c r="Y87" s="137"/>
+      <c r="Z87" s="137">
         <f t="shared" si="204"/>
         <v>7.875</v>
       </c>
-      <c r="AA87" s="136"/>
-      <c r="AB87" s="136">
+      <c r="AA87" s="137"/>
+      <c r="AB87" s="137">
         <f>SUM(V87+T87+X87+Z87)</f>
         <v>-15.75</v>
       </c>
-      <c r="AC87" s="137"/>
-      <c r="AD87" s="142">
+      <c r="AC87" s="138"/>
+      <c r="AD87" s="136">
         <f t="shared" si="209"/>
-        <v>-6</v>
-      </c>
-      <c r="AE87" s="142"/>
-      <c r="AF87" s="142">
+        <v>-5</v>
+      </c>
+      <c r="AE87" s="136"/>
+      <c r="AF87" s="136">
         <f t="shared" si="206"/>
-        <v>-2</v>
-      </c>
-      <c r="AG87" s="142"/>
-      <c r="AH87" s="142">
+        <v>-0.5</v>
+      </c>
+      <c r="AG87" s="136"/>
+      <c r="AH87" s="136">
         <f t="shared" si="207"/>
         <v>-38</v>
       </c>
-      <c r="AI87" s="142"/>
-      <c r="AJ87" s="142">
+      <c r="AI87" s="136"/>
+      <c r="AJ87" s="136">
         <f t="shared" si="208"/>
         <v>48</v>
       </c>
-      <c r="AK87" s="142"/>
-      <c r="AL87" s="142">
+      <c r="AK87" s="136"/>
+      <c r="AL87" s="136">
         <f t="shared" si="213"/>
-        <v>2</v>
-      </c>
-      <c r="AM87" s="142"/>
+        <v>4.5</v>
+      </c>
+      <c r="AM87" s="136"/>
     </row>
     <row r="88" spans="1:39" s="11" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
@@ -22326,98 +22326,98 @@
       </c>
       <c r="C88" s="120">
         <f>SUM($C$80:$C$87)</f>
-        <v>408</v>
-      </c>
-      <c r="D88" s="135">
+        <v>410.5</v>
+      </c>
+      <c r="D88" s="142">
         <f>SUM(D80:E87)</f>
         <v>106</v>
       </c>
-      <c r="E88" s="136"/>
-      <c r="F88" s="136">
+      <c r="E88" s="137"/>
+      <c r="F88" s="137">
         <f>SUM(F80:G87)</f>
-        <v>100</v>
-      </c>
-      <c r="G88" s="137"/>
-      <c r="H88" s="135">
+        <v>101</v>
+      </c>
+      <c r="G88" s="138"/>
+      <c r="H88" s="142">
         <f>SUM(H80:I87)</f>
         <v>115</v>
       </c>
-      <c r="I88" s="136"/>
-      <c r="J88" s="136">
+      <c r="I88" s="137"/>
+      <c r="J88" s="137">
         <f>SUM(J80:K87)</f>
-        <v>113</v>
-      </c>
-      <c r="K88" s="137"/>
-      <c r="L88" s="135">
+        <v>114.5</v>
+      </c>
+      <c r="K88" s="138"/>
+      <c r="L88" s="142">
         <f>SUM(L80:M87)</f>
         <v>156</v>
       </c>
-      <c r="M88" s="136"/>
-      <c r="N88" s="136">
+      <c r="M88" s="137"/>
+      <c r="N88" s="137">
         <f>SUM(N80:O87)</f>
         <v>118</v>
       </c>
-      <c r="O88" s="137"/>
-      <c r="P88" s="135">
+      <c r="O88" s="138"/>
+      <c r="P88" s="142">
         <f>SUM(P80:Q87)</f>
         <v>125</v>
       </c>
-      <c r="Q88" s="136"/>
-      <c r="R88" s="136">
+      <c r="Q88" s="137"/>
+      <c r="R88" s="137">
         <f>SUM(R80:S87)</f>
         <v>77</v>
       </c>
-      <c r="S88" s="137"/>
-      <c r="T88" s="135">
+      <c r="S88" s="138"/>
+      <c r="T88" s="142">
         <f>SUM(F88-D88)</f>
-        <v>-6</v>
-      </c>
-      <c r="U88" s="136"/>
-      <c r="V88" s="136">
+        <v>-5</v>
+      </c>
+      <c r="U88" s="137"/>
+      <c r="V88" s="137">
         <f t="shared" si="211"/>
-        <v>-2</v>
-      </c>
-      <c r="W88" s="136"/>
-      <c r="X88" s="136">
+        <v>-0.5</v>
+      </c>
+      <c r="W88" s="137"/>
+      <c r="X88" s="137">
         <f t="shared" si="212"/>
         <v>-38</v>
       </c>
-      <c r="Y88" s="136"/>
-      <c r="Z88" s="136">
+      <c r="Y88" s="137"/>
+      <c r="Z88" s="137">
         <f t="shared" si="204"/>
         <v>48</v>
       </c>
-      <c r="AA88" s="136"/>
-      <c r="AB88" s="136">
+      <c r="AA88" s="137"/>
+      <c r="AB88" s="137">
         <f t="shared" si="205"/>
-        <v>2</v>
-      </c>
-      <c r="AC88" s="137"/>
-      <c r="AD88" s="142">
+        <v>4.5</v>
+      </c>
+      <c r="AC88" s="138"/>
+      <c r="AD88" s="136">
         <f>SUM(T88+AD87)</f>
-        <v>-12</v>
-      </c>
-      <c r="AE88" s="142"/>
-      <c r="AF88" s="142">
+        <v>-10</v>
+      </c>
+      <c r="AE88" s="136"/>
+      <c r="AF88" s="136">
         <f t="shared" si="206"/>
-        <v>-4</v>
-      </c>
-      <c r="AG88" s="142"/>
-      <c r="AH88" s="142">
+        <v>-1</v>
+      </c>
+      <c r="AG88" s="136"/>
+      <c r="AH88" s="136">
         <f t="shared" si="207"/>
         <v>-76</v>
       </c>
-      <c r="AI88" s="142"/>
-      <c r="AJ88" s="142">
+      <c r="AI88" s="136"/>
+      <c r="AJ88" s="136">
         <f t="shared" si="208"/>
         <v>96</v>
       </c>
-      <c r="AK88" s="142"/>
-      <c r="AL88" s="142">
+      <c r="AK88" s="136"/>
+      <c r="AL88" s="136">
         <f t="shared" si="213"/>
-        <v>4</v>
-      </c>
-      <c r="AM88" s="142"/>
+        <v>9</v>
+      </c>
+      <c r="AM88" s="136"/>
     </row>
     <row r="89" spans="1:39" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
@@ -22524,14 +22524,14 @@
         <v>46</v>
       </c>
       <c r="V91" s="139"/>
-      <c r="W91" s="143" t="s">
+      <c r="W91" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="X91" s="143"/>
-      <c r="Y91" s="143"/>
-      <c r="Z91" s="143"/>
-      <c r="AA91" s="143"/>
-      <c r="AB91" s="143"/>
+      <c r="X91" s="163"/>
+      <c r="Y91" s="163"/>
+      <c r="Z91" s="163"/>
+      <c r="AA91" s="163"/>
+      <c r="AB91" s="163"/>
       <c r="AC91" s="139" t="s">
         <v>112</v>
       </c>
@@ -22547,15 +22547,15 @@
     </row>
     <row r="92" spans="1:39" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A92" s="128"/>
-      <c r="B92" s="143" t="s">
+      <c r="B92" s="163" t="s">
         <v>113</v>
       </c>
-      <c r="C92" s="143"/>
-      <c r="D92" s="142">
+      <c r="C92" s="163"/>
+      <c r="D92" s="136">
         <f>SUM(B11,B16,B23,B29,B32,B44,B48,B57,B65,B70)</f>
         <v>895</v>
       </c>
-      <c r="E92" s="142"/>
+      <c r="E92" s="136"/>
       <c r="F92" s="71"/>
       <c r="G92" s="71"/>
       <c r="H92" s="16"/>
@@ -22563,10 +22563,10 @@
       <c r="J92" s="16"/>
       <c r="K92" s="16"/>
       <c r="L92" s="16"/>
-      <c r="M92" s="144" t="s">
+      <c r="M92" s="167" t="s">
         <v>44</v>
       </c>
-      <c r="N92" s="144"/>
+      <c r="N92" s="167"/>
       <c r="O92" s="124"/>
       <c r="P92" s="124"/>
       <c r="Q92" s="141" t="str">
@@ -22576,24 +22576,24 @@
       <c r="R92" s="141"/>
       <c r="S92" s="141"/>
       <c r="T92" s="141"/>
-      <c r="U92" s="140">
+      <c r="U92" s="134">
         <f>SUM(D74+M74+V74+AE74+AN74+AW74+BF74+BO74+BX74+CG74+CP74+CY74+DH74+DQ74+DZ74+EI74+ER74+FA74)</f>
         <v>106</v>
       </c>
-      <c r="V92" s="140"/>
-      <c r="W92" s="140">
+      <c r="V92" s="134"/>
+      <c r="W92" s="134">
         <f>SUM(E74+N74+W74+AF74+AO74+AX74+BG74+BP74+BY74+CH74+CQ74+CZ74+DI74+DR74+EA74+EJ74+ES74+FB74)</f>
-        <v>100</v>
-      </c>
-      <c r="X92" s="140"/>
-      <c r="Y92" s="140"/>
-      <c r="Z92" s="140"/>
-      <c r="AA92" s="140"/>
-      <c r="AB92" s="140"/>
-      <c r="AC92" s="134">
+        <v>101</v>
+      </c>
+      <c r="X92" s="134"/>
+      <c r="Y92" s="134"/>
+      <c r="Z92" s="134"/>
+      <c r="AA92" s="134"/>
+      <c r="AB92" s="134"/>
+      <c r="AC92" s="135">
         <v>150</v>
       </c>
-      <c r="AD92" s="134"/>
+      <c r="AD92" s="135"/>
       <c r="AE92" s="128"/>
       <c r="AF92" s="128"/>
       <c r="AG92" s="128"/>
@@ -22626,24 +22626,24 @@
       <c r="R93" s="141"/>
       <c r="S93" s="141"/>
       <c r="T93" s="141"/>
-      <c r="U93" s="140">
+      <c r="U93" s="134">
         <f>SUM(F74+O74+X74+AG74+AP74+AY74+BH74+BQ74+BZ74+CI74+CR74+DA74+DJ74+DS74+EB74+EK74+ET74+FC74)</f>
         <v>115</v>
       </c>
-      <c r="V93" s="140"/>
-      <c r="W93" s="140">
+      <c r="V93" s="134"/>
+      <c r="W93" s="134">
         <f>SUM(G74+P74+Y74+AH74+AQ74+AZ74+BI74+BR74+CA74+CJ74+CS74+DB74+DK74+DT74+EC74+EL74+EU74+FD74)</f>
-        <v>113</v>
-      </c>
-      <c r="X93" s="140"/>
-      <c r="Y93" s="140"/>
-      <c r="Z93" s="140"/>
-      <c r="AA93" s="140"/>
-      <c r="AB93" s="140"/>
-      <c r="AC93" s="134">
+        <v>114.5</v>
+      </c>
+      <c r="X93" s="134"/>
+      <c r="Y93" s="134"/>
+      <c r="Z93" s="134"/>
+      <c r="AA93" s="134"/>
+      <c r="AB93" s="134"/>
+      <c r="AC93" s="135">
         <v>150</v>
       </c>
-      <c r="AD93" s="134"/>
+      <c r="AD93" s="135"/>
       <c r="AE93" s="128"/>
       <c r="AF93" s="128"/>
       <c r="AG93" s="128"/>
@@ -22654,15 +22654,15 @@
     </row>
     <row r="94" spans="1:39" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A94" s="128"/>
-      <c r="B94" s="143" t="s">
+      <c r="B94" s="163" t="s">
         <v>114</v>
       </c>
-      <c r="C94" s="143"/>
-      <c r="D94" s="142">
+      <c r="C94" s="163"/>
+      <c r="D94" s="136">
         <f>SUM(C11,C16,C23,C29,C32,C44,C48,C57,C65,C70)</f>
-        <v>406.5</v>
-      </c>
-      <c r="E94" s="142"/>
+        <v>409</v>
+      </c>
+      <c r="E94" s="136"/>
       <c r="F94" s="71"/>
       <c r="G94" s="71"/>
       <c r="H94" s="16"/>
@@ -22670,10 +22670,10 @@
       <c r="J94" s="16"/>
       <c r="K94" s="16"/>
       <c r="L94" s="16"/>
-      <c r="M94" s="144" t="s">
+      <c r="M94" s="167" t="s">
         <v>44</v>
       </c>
-      <c r="N94" s="144"/>
+      <c r="N94" s="167"/>
       <c r="O94" s="124"/>
       <c r="P94" s="124"/>
       <c r="Q94" s="141" t="str">
@@ -22683,24 +22683,24 @@
       <c r="R94" s="141"/>
       <c r="S94" s="141"/>
       <c r="T94" s="141"/>
-      <c r="U94" s="140">
+      <c r="U94" s="134">
         <f>SUM(H74+Q74+Z74+AI74+AR74+BA74+BJ74+BS74+CB74+CK74+CT74+DC74+DL74+DU74+ED74+EM74+EV74+FE74)</f>
         <v>156</v>
       </c>
-      <c r="V94" s="140"/>
-      <c r="W94" s="140">
+      <c r="V94" s="134"/>
+      <c r="W94" s="134">
         <f>SUM(I74+R74+AA74+AJ74+AS74+BB74+BK74+BT74+CC74+CL74+CU74+DD74+DM74+DV74+EE74+EN74+EW74+FF74)</f>
         <v>118</v>
       </c>
-      <c r="X94" s="140"/>
-      <c r="Y94" s="140"/>
-      <c r="Z94" s="140"/>
-      <c r="AA94" s="140"/>
-      <c r="AB94" s="140"/>
-      <c r="AC94" s="134">
+      <c r="X94" s="134"/>
+      <c r="Y94" s="134"/>
+      <c r="Z94" s="134"/>
+      <c r="AA94" s="134"/>
+      <c r="AB94" s="134"/>
+      <c r="AC94" s="135">
         <v>150</v>
       </c>
-      <c r="AD94" s="134"/>
+      <c r="AD94" s="135"/>
       <c r="AE94" s="128"/>
       <c r="AF94" s="128"/>
       <c r="AG94" s="128"/>
@@ -22733,24 +22733,24 @@
       <c r="R95" s="141"/>
       <c r="S95" s="141"/>
       <c r="T95" s="141"/>
-      <c r="U95" s="140">
+      <c r="U95" s="134">
         <f>SUM(J74+S74+AB74+AK74+AT74+BC74+BL74+BU74+CD74+CM74+CV74+DE74+DN74+DW74+EF74+EO74+EX74+FG74)</f>
         <v>125</v>
       </c>
-      <c r="V95" s="140"/>
-      <c r="W95" s="140">
+      <c r="V95" s="134"/>
+      <c r="W95" s="134">
         <f>SUM(K74+T74+AC74+AL74+AU74+BD74+BM74+BV74+CE74+CN74+CW74+DF74+DO74+DX74+EG74+EP74+EY74+FH74)</f>
         <v>77</v>
       </c>
-      <c r="X95" s="140"/>
-      <c r="Y95" s="140"/>
-      <c r="Z95" s="140"/>
-      <c r="AA95" s="140"/>
-      <c r="AB95" s="140"/>
-      <c r="AC95" s="134">
+      <c r="X95" s="134"/>
+      <c r="Y95" s="134"/>
+      <c r="Z95" s="134"/>
+      <c r="AA95" s="134"/>
+      <c r="AB95" s="134"/>
+      <c r="AC95" s="135">
         <v>150</v>
       </c>
-      <c r="AD95" s="134"/>
+      <c r="AD95" s="135"/>
       <c r="AE95" s="128"/>
       <c r="AF95" s="128"/>
       <c r="AG95" s="128"/>
@@ -22786,27 +22786,321 @@
       <c r="J105" s="128"/>
       <c r="K105" s="128"/>
       <c r="L105" s="128"/>
-      <c r="M105" s="138"/>
+      <c r="M105" s="168"/>
       <c r="N105" s="139"/>
     </row>
   </sheetData>
   <mergeCells count="350">
-    <mergeCell ref="U93:V93"/>
-    <mergeCell ref="W93:AB93"/>
-    <mergeCell ref="AC93:AD93"/>
-    <mergeCell ref="AF86:AG86"/>
-    <mergeCell ref="N87:O87"/>
-    <mergeCell ref="N85:O85"/>
-    <mergeCell ref="R79:S79"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="Q94:T94"/>
-    <mergeCell ref="X79:Y79"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="R86:S86"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="R87:S87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="R88:S88"/>
+    <mergeCell ref="AC95:AD95"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="M105:N105"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="U94:V94"/>
+    <mergeCell ref="Q93:T93"/>
+    <mergeCell ref="AD87:AE87"/>
+    <mergeCell ref="AD88:AE88"/>
+    <mergeCell ref="AD86:AE86"/>
+    <mergeCell ref="T87:U87"/>
+    <mergeCell ref="T88:U88"/>
+    <mergeCell ref="J88:K88"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="M92:N92"/>
+    <mergeCell ref="M94:N94"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="AL85:AM85"/>
+    <mergeCell ref="Q95:T95"/>
+    <mergeCell ref="T85:U85"/>
+    <mergeCell ref="V85:W85"/>
+    <mergeCell ref="AB85:AC85"/>
+    <mergeCell ref="AC94:AD94"/>
+    <mergeCell ref="U91:V91"/>
+    <mergeCell ref="W91:AB91"/>
+    <mergeCell ref="W94:AB94"/>
+    <mergeCell ref="AC91:AD91"/>
+    <mergeCell ref="AC92:AD92"/>
+    <mergeCell ref="U92:V92"/>
+    <mergeCell ref="W92:AB92"/>
+    <mergeCell ref="Q92:T92"/>
+    <mergeCell ref="Z86:AA86"/>
+    <mergeCell ref="Z87:AA87"/>
+    <mergeCell ref="Z88:AA88"/>
+    <mergeCell ref="AB86:AC86"/>
+    <mergeCell ref="AN9:AO9"/>
+    <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="BC9:BD9"/>
+    <mergeCell ref="BU9:BV9"/>
+    <mergeCell ref="BO9:BP9"/>
+    <mergeCell ref="T86:U86"/>
+    <mergeCell ref="V79:W79"/>
+    <mergeCell ref="V83:W83"/>
+    <mergeCell ref="V86:W86"/>
+    <mergeCell ref="T84:U84"/>
+    <mergeCell ref="V84:W84"/>
+    <mergeCell ref="AH79:AK79"/>
+    <mergeCell ref="X85:Y85"/>
+    <mergeCell ref="X86:Y86"/>
+    <mergeCell ref="AB79:AC79"/>
+    <mergeCell ref="T80:U80"/>
+    <mergeCell ref="T81:U81"/>
+    <mergeCell ref="T82:U82"/>
+    <mergeCell ref="T83:U83"/>
+    <mergeCell ref="V80:W80"/>
+    <mergeCell ref="AB80:AC80"/>
+    <mergeCell ref="V81:W81"/>
+    <mergeCell ref="V82:W82"/>
+    <mergeCell ref="Z79:AA79"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="BU8:BV8"/>
+    <mergeCell ref="BX8:BY8"/>
+    <mergeCell ref="AW8:AZ8"/>
+    <mergeCell ref="BC8:BD8"/>
+    <mergeCell ref="BF8:BG8"/>
+    <mergeCell ref="BL8:BM8"/>
+    <mergeCell ref="BO8:BP8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="AR9:AS9"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="BA9:BB9"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="AB84:AC84"/>
+    <mergeCell ref="X80:Y80"/>
+    <mergeCell ref="X81:Y81"/>
+    <mergeCell ref="X82:Y82"/>
+    <mergeCell ref="X83:Y83"/>
+    <mergeCell ref="X84:Y84"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AD79:AE79"/>
+    <mergeCell ref="AL79:AM79"/>
+    <mergeCell ref="AD80:AE80"/>
+    <mergeCell ref="AL80:AM80"/>
+    <mergeCell ref="AD81:AE81"/>
+    <mergeCell ref="AB81:AC81"/>
+    <mergeCell ref="T79:U79"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="D78:G78"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="J79:K79"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="EI7:EP7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AK8:AL8"/>
+    <mergeCell ref="AN8:AO8"/>
+    <mergeCell ref="AT8:AU8"/>
+    <mergeCell ref="CD8:CE8"/>
+    <mergeCell ref="CG8:CH8"/>
+    <mergeCell ref="BO7:BV7"/>
+    <mergeCell ref="BX7:CE7"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="AE7:AL7"/>
+    <mergeCell ref="AN7:AU7"/>
+    <mergeCell ref="AW7:BD7"/>
+    <mergeCell ref="M7:T7"/>
+    <mergeCell ref="V7:AC7"/>
+    <mergeCell ref="DQ7:DX7"/>
+    <mergeCell ref="DZ7:EG7"/>
+    <mergeCell ref="DH7:DO7"/>
+    <mergeCell ref="DE8:DF8"/>
+    <mergeCell ref="EI5:FH5"/>
+    <mergeCell ref="DQ5:EH5"/>
+    <mergeCell ref="M5:AD5"/>
+    <mergeCell ref="AE5:AV5"/>
+    <mergeCell ref="AW5:BN5"/>
+    <mergeCell ref="BO5:CF5"/>
+    <mergeCell ref="CG5:CX5"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="CY5:DP5"/>
+    <mergeCell ref="DZ8:EA8"/>
+    <mergeCell ref="CG7:CN7"/>
+    <mergeCell ref="CP7:CW7"/>
+    <mergeCell ref="CY7:DF7"/>
+    <mergeCell ref="CM8:CN8"/>
+    <mergeCell ref="CP8:CQ8"/>
+    <mergeCell ref="CV8:CW8"/>
+    <mergeCell ref="CY8:CZ8"/>
+    <mergeCell ref="FA7:FH7"/>
+    <mergeCell ref="FG8:FH8"/>
+    <mergeCell ref="ER7:EY7"/>
+    <mergeCell ref="EI9:EJ9"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="BX9:BY9"/>
+    <mergeCell ref="CD9:CE9"/>
+    <mergeCell ref="BF7:BM7"/>
+    <mergeCell ref="BF9:BG9"/>
+    <mergeCell ref="BL9:BM9"/>
+    <mergeCell ref="EF9:EG9"/>
+    <mergeCell ref="DN9:DO9"/>
+    <mergeCell ref="DH8:DI8"/>
+    <mergeCell ref="DN8:DO8"/>
+    <mergeCell ref="DQ8:DR8"/>
+    <mergeCell ref="DW8:DX8"/>
+    <mergeCell ref="FG9:FH9"/>
+    <mergeCell ref="EF8:EG8"/>
+    <mergeCell ref="EI8:EJ8"/>
+    <mergeCell ref="EO8:EP8"/>
+    <mergeCell ref="ER8:ES8"/>
+    <mergeCell ref="EO9:EP9"/>
+    <mergeCell ref="ER9:ES9"/>
+    <mergeCell ref="EX9:EY9"/>
+    <mergeCell ref="AW9:AX9"/>
+    <mergeCell ref="AY9:AZ9"/>
+    <mergeCell ref="AP9:AQ9"/>
+    <mergeCell ref="EX8:EY8"/>
+    <mergeCell ref="FA8:FB8"/>
+    <mergeCell ref="FE9:FF9"/>
+    <mergeCell ref="EV9:EW9"/>
+    <mergeCell ref="EM9:EN9"/>
+    <mergeCell ref="EK9:EL9"/>
+    <mergeCell ref="ET9:EU9"/>
+    <mergeCell ref="FC9:FD9"/>
+    <mergeCell ref="FA9:FB9"/>
+    <mergeCell ref="DQ9:DR9"/>
+    <mergeCell ref="DW9:DX9"/>
+    <mergeCell ref="CG9:CH9"/>
+    <mergeCell ref="BH9:BI9"/>
+    <mergeCell ref="BQ9:BR9"/>
+    <mergeCell ref="BZ9:CA9"/>
+    <mergeCell ref="CI9:CJ9"/>
+    <mergeCell ref="CR9:CS9"/>
+    <mergeCell ref="ED9:EE9"/>
+    <mergeCell ref="DU9:DV9"/>
+    <mergeCell ref="DL9:DM9"/>
+    <mergeCell ref="DC9:DD9"/>
+    <mergeCell ref="CT9:CU9"/>
+    <mergeCell ref="CK9:CL9"/>
+    <mergeCell ref="CB9:CC9"/>
+    <mergeCell ref="BS9:BT9"/>
+    <mergeCell ref="BJ9:BK9"/>
+    <mergeCell ref="DA9:DB9"/>
+    <mergeCell ref="DJ9:DK9"/>
+    <mergeCell ref="DS9:DT9"/>
+    <mergeCell ref="EB9:EC9"/>
+    <mergeCell ref="DZ9:EA9"/>
+    <mergeCell ref="CM9:CN9"/>
+    <mergeCell ref="CP9:CQ9"/>
+    <mergeCell ref="CV9:CW9"/>
+    <mergeCell ref="CY9:CZ9"/>
+    <mergeCell ref="DE9:DF9"/>
+    <mergeCell ref="DH9:DI9"/>
+    <mergeCell ref="T78:AC78"/>
+    <mergeCell ref="AD78:AM78"/>
+    <mergeCell ref="R80:S80"/>
+    <mergeCell ref="Z80:AA80"/>
+    <mergeCell ref="Z81:AA81"/>
+    <mergeCell ref="Z82:AA82"/>
+    <mergeCell ref="Z83:AA83"/>
+    <mergeCell ref="Z84:AA84"/>
+    <mergeCell ref="Z85:AA85"/>
+    <mergeCell ref="AD84:AE84"/>
+    <mergeCell ref="AD85:AE85"/>
+    <mergeCell ref="AD83:AE83"/>
+    <mergeCell ref="AB83:AC83"/>
+    <mergeCell ref="AF79:AG79"/>
+    <mergeCell ref="AF80:AG80"/>
+    <mergeCell ref="AF81:AG81"/>
+    <mergeCell ref="AF82:AG82"/>
+    <mergeCell ref="AL87:AM87"/>
+    <mergeCell ref="AL88:AM88"/>
+    <mergeCell ref="AL86:AM86"/>
+    <mergeCell ref="AL84:AM84"/>
+    <mergeCell ref="AL81:AM81"/>
+    <mergeCell ref="AD82:AE82"/>
+    <mergeCell ref="AL82:AM82"/>
+    <mergeCell ref="AL83:AM83"/>
+    <mergeCell ref="AB82:AC82"/>
+    <mergeCell ref="AB87:AC87"/>
+    <mergeCell ref="AF88:AG88"/>
+    <mergeCell ref="AF87:AG87"/>
+    <mergeCell ref="AB88:AC88"/>
+    <mergeCell ref="AF83:AG83"/>
+    <mergeCell ref="AF84:AG84"/>
+    <mergeCell ref="AF85:AG85"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="J87:K87"/>
+    <mergeCell ref="L78:O78"/>
+    <mergeCell ref="P78:S78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="R81:S81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="R82:S82"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="R83:S83"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="R84:S84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="R85:S85"/>
     <mergeCell ref="U95:V95"/>
     <mergeCell ref="AJ80:AK80"/>
     <mergeCell ref="AJ82:AK82"/>
@@ -22831,316 +23125,22 @@
     <mergeCell ref="V87:W87"/>
     <mergeCell ref="V88:W88"/>
     <mergeCell ref="W95:AB95"/>
-    <mergeCell ref="J86:K86"/>
-    <mergeCell ref="J87:K87"/>
-    <mergeCell ref="L78:O78"/>
-    <mergeCell ref="P78:S78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="J84:K84"/>
-    <mergeCell ref="J85:K85"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="R81:S81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="R82:S82"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="R83:S83"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="R84:S84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="N80:O80"/>
-    <mergeCell ref="N81:O81"/>
-    <mergeCell ref="R85:S85"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="AL87:AM87"/>
-    <mergeCell ref="AL88:AM88"/>
-    <mergeCell ref="AL86:AM86"/>
-    <mergeCell ref="AL84:AM84"/>
-    <mergeCell ref="AL81:AM81"/>
-    <mergeCell ref="AD82:AE82"/>
-    <mergeCell ref="AL82:AM82"/>
-    <mergeCell ref="AL83:AM83"/>
-    <mergeCell ref="AB82:AC82"/>
-    <mergeCell ref="AB87:AC87"/>
-    <mergeCell ref="AF88:AG88"/>
-    <mergeCell ref="AF87:AG87"/>
-    <mergeCell ref="AB88:AC88"/>
-    <mergeCell ref="AF83:AG83"/>
-    <mergeCell ref="AF84:AG84"/>
-    <mergeCell ref="AF85:AG85"/>
-    <mergeCell ref="T78:AC78"/>
-    <mergeCell ref="AD78:AM78"/>
-    <mergeCell ref="R80:S80"/>
-    <mergeCell ref="Z80:AA80"/>
-    <mergeCell ref="Z81:AA81"/>
-    <mergeCell ref="Z82:AA82"/>
-    <mergeCell ref="Z83:AA83"/>
-    <mergeCell ref="Z84:AA84"/>
-    <mergeCell ref="Z85:AA85"/>
-    <mergeCell ref="AD84:AE84"/>
-    <mergeCell ref="AD85:AE85"/>
-    <mergeCell ref="AD83:AE83"/>
-    <mergeCell ref="AB83:AC83"/>
-    <mergeCell ref="AF79:AG79"/>
-    <mergeCell ref="AF80:AG80"/>
-    <mergeCell ref="AF81:AG81"/>
-    <mergeCell ref="AF82:AG82"/>
-    <mergeCell ref="CT9:CU9"/>
-    <mergeCell ref="CK9:CL9"/>
-    <mergeCell ref="CB9:CC9"/>
-    <mergeCell ref="BS9:BT9"/>
-    <mergeCell ref="BJ9:BK9"/>
-    <mergeCell ref="DA9:DB9"/>
-    <mergeCell ref="DJ9:DK9"/>
-    <mergeCell ref="DS9:DT9"/>
-    <mergeCell ref="EB9:EC9"/>
-    <mergeCell ref="DZ9:EA9"/>
-    <mergeCell ref="CM9:CN9"/>
-    <mergeCell ref="CP9:CQ9"/>
-    <mergeCell ref="CV9:CW9"/>
-    <mergeCell ref="CY9:CZ9"/>
-    <mergeCell ref="DE9:DF9"/>
-    <mergeCell ref="DH9:DI9"/>
-    <mergeCell ref="AW9:AX9"/>
-    <mergeCell ref="AY9:AZ9"/>
-    <mergeCell ref="AP9:AQ9"/>
-    <mergeCell ref="EX8:EY8"/>
-    <mergeCell ref="FA8:FB8"/>
-    <mergeCell ref="FE9:FF9"/>
-    <mergeCell ref="EV9:EW9"/>
-    <mergeCell ref="EM9:EN9"/>
-    <mergeCell ref="EK9:EL9"/>
-    <mergeCell ref="ET9:EU9"/>
-    <mergeCell ref="FC9:FD9"/>
-    <mergeCell ref="FA9:FB9"/>
-    <mergeCell ref="DQ9:DR9"/>
-    <mergeCell ref="DW9:DX9"/>
-    <mergeCell ref="CG9:CH9"/>
-    <mergeCell ref="BH9:BI9"/>
-    <mergeCell ref="BQ9:BR9"/>
-    <mergeCell ref="BZ9:CA9"/>
-    <mergeCell ref="CI9:CJ9"/>
-    <mergeCell ref="CR9:CS9"/>
-    <mergeCell ref="ED9:EE9"/>
-    <mergeCell ref="DU9:DV9"/>
-    <mergeCell ref="DL9:DM9"/>
-    <mergeCell ref="DC9:DD9"/>
-    <mergeCell ref="FA7:FH7"/>
-    <mergeCell ref="FG8:FH8"/>
-    <mergeCell ref="ER7:EY7"/>
-    <mergeCell ref="EI9:EJ9"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="BX9:BY9"/>
-    <mergeCell ref="CD9:CE9"/>
-    <mergeCell ref="BF7:BM7"/>
-    <mergeCell ref="BF9:BG9"/>
-    <mergeCell ref="BL9:BM9"/>
-    <mergeCell ref="EF9:EG9"/>
-    <mergeCell ref="DN9:DO9"/>
-    <mergeCell ref="DH8:DI8"/>
-    <mergeCell ref="DN8:DO8"/>
-    <mergeCell ref="DQ8:DR8"/>
-    <mergeCell ref="DW8:DX8"/>
-    <mergeCell ref="FG9:FH9"/>
-    <mergeCell ref="EF8:EG8"/>
-    <mergeCell ref="EI8:EJ8"/>
-    <mergeCell ref="EO8:EP8"/>
-    <mergeCell ref="ER8:ES8"/>
-    <mergeCell ref="EO9:EP9"/>
-    <mergeCell ref="ER9:ES9"/>
-    <mergeCell ref="EX9:EY9"/>
-    <mergeCell ref="DQ5:EH5"/>
-    <mergeCell ref="M5:AD5"/>
-    <mergeCell ref="AE5:AV5"/>
-    <mergeCell ref="AW5:BN5"/>
-    <mergeCell ref="BO5:CF5"/>
-    <mergeCell ref="CG5:CX5"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="CY5:DP5"/>
-    <mergeCell ref="DZ8:EA8"/>
-    <mergeCell ref="CG7:CN7"/>
-    <mergeCell ref="CP7:CW7"/>
-    <mergeCell ref="CY7:DF7"/>
-    <mergeCell ref="CM8:CN8"/>
-    <mergeCell ref="CP8:CQ8"/>
-    <mergeCell ref="CV8:CW8"/>
-    <mergeCell ref="CY8:CZ8"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="EI7:EP7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="AN8:AO8"/>
-    <mergeCell ref="AT8:AU8"/>
-    <mergeCell ref="CD8:CE8"/>
-    <mergeCell ref="CG8:CH8"/>
-    <mergeCell ref="BO7:BV7"/>
-    <mergeCell ref="BX7:CE7"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="AE7:AL7"/>
-    <mergeCell ref="AN7:AU7"/>
-    <mergeCell ref="AW7:BD7"/>
-    <mergeCell ref="M7:T7"/>
-    <mergeCell ref="V7:AC7"/>
-    <mergeCell ref="DQ7:DX7"/>
-    <mergeCell ref="DZ7:EG7"/>
-    <mergeCell ref="DH7:DO7"/>
-    <mergeCell ref="DE8:DF8"/>
-    <mergeCell ref="EI5:FH5"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="L79:M79"/>
-    <mergeCell ref="L81:M81"/>
-    <mergeCell ref="L80:M80"/>
-    <mergeCell ref="L82:M82"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="D78:G78"/>
-    <mergeCell ref="J80:K80"/>
-    <mergeCell ref="J81:K81"/>
-    <mergeCell ref="J82:K82"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="J79:K79"/>
-    <mergeCell ref="H78:K78"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="BA9:BB9"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="L84:M84"/>
-    <mergeCell ref="AB84:AC84"/>
-    <mergeCell ref="X80:Y80"/>
-    <mergeCell ref="X81:Y81"/>
-    <mergeCell ref="X82:Y82"/>
-    <mergeCell ref="X83:Y83"/>
-    <mergeCell ref="X84:Y84"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AD79:AE79"/>
-    <mergeCell ref="AL79:AM79"/>
-    <mergeCell ref="AD80:AE80"/>
-    <mergeCell ref="AL80:AM80"/>
-    <mergeCell ref="AD81:AE81"/>
-    <mergeCell ref="AB81:AC81"/>
-    <mergeCell ref="T79:U79"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="BU8:BV8"/>
-    <mergeCell ref="BX8:BY8"/>
-    <mergeCell ref="AW8:AZ8"/>
-    <mergeCell ref="BC8:BD8"/>
-    <mergeCell ref="BF8:BG8"/>
-    <mergeCell ref="BL8:BM8"/>
-    <mergeCell ref="BO8:BP8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="AR9:AS9"/>
-    <mergeCell ref="AN9:AO9"/>
-    <mergeCell ref="AT9:AU9"/>
-    <mergeCell ref="BC9:BD9"/>
-    <mergeCell ref="BU9:BV9"/>
-    <mergeCell ref="BO9:BP9"/>
-    <mergeCell ref="T86:U86"/>
-    <mergeCell ref="V79:W79"/>
-    <mergeCell ref="V83:W83"/>
-    <mergeCell ref="V86:W86"/>
-    <mergeCell ref="T84:U84"/>
-    <mergeCell ref="V84:W84"/>
-    <mergeCell ref="AH79:AK79"/>
-    <mergeCell ref="X85:Y85"/>
-    <mergeCell ref="X86:Y86"/>
-    <mergeCell ref="AB79:AC79"/>
-    <mergeCell ref="T80:U80"/>
-    <mergeCell ref="T81:U81"/>
-    <mergeCell ref="T82:U82"/>
-    <mergeCell ref="T83:U83"/>
-    <mergeCell ref="V80:W80"/>
-    <mergeCell ref="AB80:AC80"/>
-    <mergeCell ref="V81:W81"/>
-    <mergeCell ref="V82:W82"/>
-    <mergeCell ref="Z79:AA79"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="M92:N92"/>
-    <mergeCell ref="M94:N94"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="AL85:AM85"/>
-    <mergeCell ref="Q95:T95"/>
-    <mergeCell ref="T85:U85"/>
-    <mergeCell ref="V85:W85"/>
-    <mergeCell ref="AB85:AC85"/>
-    <mergeCell ref="AC94:AD94"/>
-    <mergeCell ref="U91:V91"/>
-    <mergeCell ref="W91:AB91"/>
-    <mergeCell ref="W94:AB94"/>
-    <mergeCell ref="AC91:AD91"/>
-    <mergeCell ref="AC92:AD92"/>
-    <mergeCell ref="U92:V92"/>
-    <mergeCell ref="W92:AB92"/>
-    <mergeCell ref="Q92:T92"/>
-    <mergeCell ref="Z86:AA86"/>
-    <mergeCell ref="Z87:AA87"/>
-    <mergeCell ref="Z88:AA88"/>
-    <mergeCell ref="AB86:AC86"/>
-    <mergeCell ref="AC95:AD95"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="M105:N105"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="L86:M86"/>
-    <mergeCell ref="L87:M87"/>
-    <mergeCell ref="L85:M85"/>
-    <mergeCell ref="L88:M88"/>
-    <mergeCell ref="N88:O88"/>
-    <mergeCell ref="N86:O86"/>
-    <mergeCell ref="U94:V94"/>
-    <mergeCell ref="Q93:T93"/>
-    <mergeCell ref="AD87:AE87"/>
-    <mergeCell ref="AD88:AE88"/>
-    <mergeCell ref="AD86:AE86"/>
-    <mergeCell ref="T87:U87"/>
-    <mergeCell ref="T88:U88"/>
-    <mergeCell ref="J88:K88"/>
+    <mergeCell ref="U93:V93"/>
+    <mergeCell ref="W93:AB93"/>
+    <mergeCell ref="AC93:AD93"/>
+    <mergeCell ref="AF86:AG86"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="R79:S79"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="Q94:T94"/>
+    <mergeCell ref="X79:Y79"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="R86:S86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="R87:S87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="R88:S88"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -23253,60 +23253,60 @@
       <c r="B5" s="67"/>
       <c r="C5" s="67"/>
       <c r="D5" s="67"/>
-      <c r="E5" s="173" t="s">
+      <c r="E5" s="171" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="173"/>
-      <c r="G5" s="172" t="s">
+      <c r="F5" s="171"/>
+      <c r="G5" s="170" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="172"/>
-      <c r="I5" s="172"/>
-      <c r="J5" s="172"/>
-      <c r="K5" s="164" t="s">
+      <c r="H5" s="170"/>
+      <c r="I5" s="170"/>
+      <c r="J5" s="170"/>
+      <c r="K5" s="154" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="164"/>
-      <c r="M5" s="164"/>
-      <c r="N5" s="164"/>
-      <c r="O5" s="165" t="s">
+      <c r="L5" s="154"/>
+      <c r="M5" s="154"/>
+      <c r="N5" s="154"/>
+      <c r="O5" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="165"/>
-      <c r="Q5" s="165"/>
-      <c r="R5" s="165"/>
-      <c r="S5" s="166" t="s">
+      <c r="P5" s="155"/>
+      <c r="Q5" s="155"/>
+      <c r="R5" s="155"/>
+      <c r="S5" s="156" t="s">
         <v>18</v>
       </c>
-      <c r="T5" s="166"/>
-      <c r="U5" s="166"/>
-      <c r="V5" s="166"/>
-      <c r="W5" s="167" t="s">
+      <c r="T5" s="156"/>
+      <c r="U5" s="156"/>
+      <c r="V5" s="156"/>
+      <c r="W5" s="157" t="s">
         <v>19</v>
       </c>
-      <c r="X5" s="167"/>
-      <c r="Y5" s="167"/>
-      <c r="Z5" s="167"/>
-      <c r="AA5" s="168" t="s">
+      <c r="X5" s="157"/>
+      <c r="Y5" s="157"/>
+      <c r="Z5" s="157"/>
+      <c r="AA5" s="158" t="s">
         <v>20</v>
       </c>
-      <c r="AB5" s="168"/>
-      <c r="AC5" s="168"/>
-      <c r="AD5" s="168"/>
-      <c r="AE5" s="162" t="s">
+      <c r="AB5" s="158"/>
+      <c r="AC5" s="158"/>
+      <c r="AD5" s="158"/>
+      <c r="AE5" s="152" t="s">
         <v>21</v>
       </c>
-      <c r="AF5" s="162"/>
-      <c r="AG5" s="162"/>
-      <c r="AH5" s="162"/>
-      <c r="AI5" s="161" t="s">
+      <c r="AF5" s="152"/>
+      <c r="AG5" s="152"/>
+      <c r="AH5" s="152"/>
+      <c r="AI5" s="162" t="s">
         <v>22</v>
       </c>
-      <c r="AJ5" s="161"/>
-      <c r="AK5" s="161"/>
-      <c r="AL5" s="161"/>
-      <c r="AM5" s="161"/>
-      <c r="AN5" s="161"/>
+      <c r="AJ5" s="162"/>
+      <c r="AK5" s="162"/>
+      <c r="AL5" s="162"/>
+      <c r="AM5" s="162"/>
+      <c r="AN5" s="162"/>
       <c r="AO5" s="68"/>
       <c r="AP5" s="68"/>
       <c r="AQ5" s="68"/>
@@ -23421,60 +23421,60 @@
         <v>Woche 7</v>
       </c>
       <c r="T7" s="139"/>
-      <c r="U7" s="170" t="str">
+      <c r="U7" s="173" t="str">
         <f>Detailplan!BX7</f>
         <v>Woche 8</v>
       </c>
-      <c r="V7" s="170"/>
-      <c r="W7" s="170" t="str">
+      <c r="V7" s="173"/>
+      <c r="W7" s="173" t="str">
         <f>Detailplan!CG7</f>
         <v>Woche 9</v>
       </c>
-      <c r="X7" s="170"/>
-      <c r="Y7" s="170" t="str">
+      <c r="X7" s="173"/>
+      <c r="Y7" s="173" t="str">
         <f>Detailplan!CP7</f>
         <v>Woche 10</v>
       </c>
-      <c r="Z7" s="170"/>
-      <c r="AA7" s="170" t="str">
+      <c r="Z7" s="173"/>
+      <c r="AA7" s="173" t="str">
         <f>Detailplan!CY7</f>
         <v>Woche 11</v>
       </c>
-      <c r="AB7" s="170"/>
-      <c r="AC7" s="170" t="str">
+      <c r="AB7" s="173"/>
+      <c r="AC7" s="173" t="str">
         <f>Detailplan!DH7</f>
         <v>Woche 12</v>
       </c>
-      <c r="AD7" s="170"/>
-      <c r="AE7" s="170" t="str">
+      <c r="AD7" s="173"/>
+      <c r="AE7" s="173" t="str">
         <f>Detailplan!DQ7</f>
         <v>Woche 13</v>
       </c>
-      <c r="AF7" s="170"/>
-      <c r="AG7" s="170" t="str">
+      <c r="AF7" s="173"/>
+      <c r="AG7" s="173" t="str">
         <f>Detailplan!DZ7</f>
         <v>Woche 14</v>
       </c>
-      <c r="AH7" s="170"/>
-      <c r="AI7" s="170" t="str">
+      <c r="AH7" s="173"/>
+      <c r="AI7" s="173" t="str">
         <f>Detailplan!EI7</f>
         <v>Woche 15</v>
       </c>
-      <c r="AJ7" s="170"/>
-      <c r="AK7" s="170" t="str">
+      <c r="AJ7" s="173"/>
+      <c r="AK7" s="173" t="str">
         <f>Detailplan!ER7</f>
         <v>Woche 16</v>
       </c>
-      <c r="AL7" s="170"/>
-      <c r="AM7" s="170" t="str">
+      <c r="AL7" s="173"/>
+      <c r="AM7" s="173" t="str">
         <f>Detailplan!FA7</f>
         <v>Woche 17</v>
       </c>
-      <c r="AN7" s="170"/>
+      <c r="AN7" s="173"/>
     </row>
     <row r="8" spans="1:93" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="143" t="s">
+      <c r="B8" s="163" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="139"/>
@@ -23643,7 +23643,7 @@
       <c r="B13" s="51"/>
       <c r="C13" s="51">
         <f>Detailplan!C11</f>
-        <v>80.5</v>
+        <v>83</v>
       </c>
       <c r="D13" s="59"/>
       <c r="E13" s="169">
@@ -23703,7 +23703,7 @@
       <c r="Z13" s="169"/>
       <c r="AA13" s="169">
         <f>SUM(Detailplan!CZ11,Detailplan!DD11,Detailplan!DF11,Detailplan!DB11)</f>
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AB13" s="169"/>
       <c r="AC13" s="169">
@@ -28051,7 +28051,7 @@
       </c>
       <c r="C74" s="56">
         <f>SUM(C13+C16+C19+C22+C25+C52+C55+C60+C63+C66)</f>
-        <v>406.5</v>
+        <v>409</v>
       </c>
       <c r="D74" s="18"/>
       <c r="E74" s="19"/>
@@ -28138,12 +28138,12 @@
     <row r="80" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B80" s="5"/>
       <c r="C80" s="123"/>
-      <c r="D80" s="171" t="s">
+      <c r="D80" s="172" t="s">
         <v>118</v>
       </c>
-      <c r="E80" s="171"/>
-      <c r="F80" s="171"/>
-      <c r="G80" s="171"/>
+      <c r="E80" s="172"/>
+      <c r="F80" s="172"/>
+      <c r="G80" s="172"/>
       <c r="H80" s="18">
         <v>1E-3</v>
       </c>
@@ -28158,12 +28158,12 @@
     <row r="81" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B81" s="28"/>
       <c r="C81" s="123"/>
-      <c r="D81" s="171" t="s">
+      <c r="D81" s="172" t="s">
         <v>119</v>
       </c>
-      <c r="E81" s="171"/>
-      <c r="F81" s="171"/>
-      <c r="G81" s="171"/>
+      <c r="E81" s="172"/>
+      <c r="F81" s="172"/>
+      <c r="G81" s="172"/>
       <c r="H81" s="18">
         <v>8</v>
       </c>
@@ -28178,12 +28178,12 @@
     <row r="82" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B82" s="49"/>
       <c r="C82" s="123"/>
-      <c r="D82" s="171" t="s">
+      <c r="D82" s="172" t="s">
         <v>120</v>
       </c>
-      <c r="E82" s="171"/>
-      <c r="F82" s="171"/>
-      <c r="G82" s="171"/>
+      <c r="E82" s="172"/>
+      <c r="F82" s="172"/>
+      <c r="G82" s="172"/>
       <c r="H82" s="18">
         <v>16.001000000000001</v>
       </c>
@@ -28241,12 +28241,12 @@
     <row r="86" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B86" s="52"/>
       <c r="C86" s="123"/>
-      <c r="D86" s="171" t="s">
+      <c r="D86" s="172" t="s">
         <v>118</v>
       </c>
-      <c r="E86" s="171"/>
-      <c r="F86" s="171"/>
-      <c r="G86" s="171"/>
+      <c r="E86" s="172"/>
+      <c r="F86" s="172"/>
+      <c r="G86" s="172"/>
       <c r="H86" s="18">
         <v>1E-3</v>
       </c>
@@ -28261,12 +28261,12 @@
     <row r="87" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B87" s="53"/>
       <c r="C87" s="123"/>
-      <c r="D87" s="171" t="s">
+      <c r="D87" s="172" t="s">
         <v>119</v>
       </c>
-      <c r="E87" s="171"/>
-      <c r="F87" s="171"/>
-      <c r="G87" s="171"/>
+      <c r="E87" s="172"/>
+      <c r="F87" s="172"/>
+      <c r="G87" s="172"/>
       <c r="H87" s="18">
         <v>8</v>
       </c>
@@ -28281,12 +28281,12 @@
     <row r="88" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B88" s="54"/>
       <c r="C88" s="123"/>
-      <c r="D88" s="171" t="s">
+      <c r="D88" s="172" t="s">
         <v>120</v>
       </c>
-      <c r="E88" s="171"/>
-      <c r="F88" s="171"/>
-      <c r="G88" s="171"/>
+      <c r="E88" s="172"/>
+      <c r="F88" s="172"/>
+      <c r="G88" s="172"/>
       <c r="H88" s="18">
         <v>16.001000000000001</v>
       </c>
@@ -28300,6 +28300,682 @@
     </row>
   </sheetData>
   <mergeCells count="700">
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="W5:Z5"/>
+    <mergeCell ref="AA5:AD5"/>
+    <mergeCell ref="AE5:AH5"/>
+    <mergeCell ref="AI5:AN5"/>
+    <mergeCell ref="AK66:AL66"/>
+    <mergeCell ref="AM54:AN54"/>
+    <mergeCell ref="AM55:AN55"/>
+    <mergeCell ref="AM57:AN57"/>
+    <mergeCell ref="AM59:AN59"/>
+    <mergeCell ref="AM60:AN60"/>
+    <mergeCell ref="AM62:AN62"/>
+    <mergeCell ref="AM63:AN63"/>
+    <mergeCell ref="AM65:AN65"/>
+    <mergeCell ref="AM66:AN66"/>
+    <mergeCell ref="AK60:AL60"/>
+    <mergeCell ref="AK62:AL62"/>
+    <mergeCell ref="AK63:AL63"/>
+    <mergeCell ref="AK65:AL65"/>
+    <mergeCell ref="AK54:AL54"/>
+    <mergeCell ref="AK55:AL55"/>
+    <mergeCell ref="AK57:AL57"/>
+    <mergeCell ref="AK59:AL59"/>
+    <mergeCell ref="AK51:AL51"/>
+    <mergeCell ref="AM51:AN51"/>
+    <mergeCell ref="AK52:AL52"/>
+    <mergeCell ref="AM52:AN52"/>
+    <mergeCell ref="AE65:AF65"/>
+    <mergeCell ref="AG65:AH65"/>
+    <mergeCell ref="AI65:AJ65"/>
+    <mergeCell ref="AE59:AF59"/>
+    <mergeCell ref="AG59:AH59"/>
+    <mergeCell ref="AI59:AJ59"/>
+    <mergeCell ref="AI60:AJ60"/>
+    <mergeCell ref="AI54:AJ54"/>
+    <mergeCell ref="AC63:AD63"/>
+    <mergeCell ref="AE63:AF63"/>
+    <mergeCell ref="AG63:AH63"/>
+    <mergeCell ref="AI63:AJ63"/>
+    <mergeCell ref="W62:X62"/>
+    <mergeCell ref="Y62:Z62"/>
+    <mergeCell ref="AA62:AB62"/>
+    <mergeCell ref="AC62:AD62"/>
+    <mergeCell ref="AI66:AJ66"/>
+    <mergeCell ref="W65:X65"/>
+    <mergeCell ref="Y65:Z65"/>
+    <mergeCell ref="AA65:AB65"/>
+    <mergeCell ref="AC65:AD65"/>
+    <mergeCell ref="AE62:AF62"/>
+    <mergeCell ref="AG62:AH62"/>
+    <mergeCell ref="AI62:AJ62"/>
+    <mergeCell ref="W63:X63"/>
+    <mergeCell ref="Y63:Z63"/>
+    <mergeCell ref="W66:X66"/>
+    <mergeCell ref="Y66:Z66"/>
+    <mergeCell ref="AA66:AB66"/>
+    <mergeCell ref="AC66:AD66"/>
+    <mergeCell ref="AE66:AF66"/>
+    <mergeCell ref="AG66:AH66"/>
+    <mergeCell ref="AA60:AB60"/>
+    <mergeCell ref="AC60:AD60"/>
+    <mergeCell ref="AE60:AF60"/>
+    <mergeCell ref="AG60:AH60"/>
+    <mergeCell ref="AC54:AD54"/>
+    <mergeCell ref="AE54:AF54"/>
+    <mergeCell ref="AG54:AH54"/>
+    <mergeCell ref="W54:X54"/>
+    <mergeCell ref="Y54:Z54"/>
+    <mergeCell ref="W59:X59"/>
+    <mergeCell ref="Y59:Z59"/>
+    <mergeCell ref="AA59:AB59"/>
+    <mergeCell ref="AC59:AD59"/>
+    <mergeCell ref="AE55:AF55"/>
+    <mergeCell ref="AG55:AH55"/>
+    <mergeCell ref="W57:X57"/>
+    <mergeCell ref="Y57:Z57"/>
+    <mergeCell ref="AC52:AD52"/>
+    <mergeCell ref="AE52:AF52"/>
+    <mergeCell ref="AG52:AH52"/>
+    <mergeCell ref="AI52:AJ52"/>
+    <mergeCell ref="AA57:AB57"/>
+    <mergeCell ref="AC57:AD57"/>
+    <mergeCell ref="AE57:AF57"/>
+    <mergeCell ref="AG57:AH57"/>
+    <mergeCell ref="AI57:AJ57"/>
+    <mergeCell ref="AA55:AB55"/>
+    <mergeCell ref="AC55:AD55"/>
+    <mergeCell ref="AA52:AB52"/>
+    <mergeCell ref="AA54:AB54"/>
+    <mergeCell ref="AI55:AJ55"/>
+    <mergeCell ref="S66:T66"/>
+    <mergeCell ref="O65:P65"/>
+    <mergeCell ref="Q65:R65"/>
+    <mergeCell ref="U66:V66"/>
+    <mergeCell ref="W52:X52"/>
+    <mergeCell ref="Y52:Z52"/>
+    <mergeCell ref="W55:X55"/>
+    <mergeCell ref="Y55:Z55"/>
+    <mergeCell ref="O62:P62"/>
+    <mergeCell ref="Q62:R62"/>
+    <mergeCell ref="S62:T62"/>
+    <mergeCell ref="U62:V62"/>
+    <mergeCell ref="O60:P60"/>
+    <mergeCell ref="Q60:R60"/>
+    <mergeCell ref="S60:T60"/>
+    <mergeCell ref="U60:V60"/>
+    <mergeCell ref="O57:P57"/>
+    <mergeCell ref="Q57:R57"/>
+    <mergeCell ref="S57:T57"/>
+    <mergeCell ref="W60:X60"/>
+    <mergeCell ref="Y60:Z60"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="S55:T55"/>
+    <mergeCell ref="AA63:AB63"/>
+    <mergeCell ref="S65:T65"/>
+    <mergeCell ref="U65:V65"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="O63:P63"/>
+    <mergeCell ref="Q63:R63"/>
+    <mergeCell ref="S63:T63"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="U63:V63"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="O66:P66"/>
+    <mergeCell ref="Q66:R66"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="O59:P59"/>
+    <mergeCell ref="Q59:R59"/>
+    <mergeCell ref="S59:T59"/>
+    <mergeCell ref="U59:V59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="U55:V55"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="S54:T54"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="U54:V54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="U57:V57"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="U52:V52"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="U51:V51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="AC51:AD51"/>
+    <mergeCell ref="AE51:AF51"/>
+    <mergeCell ref="AG51:AH51"/>
+    <mergeCell ref="AI51:AJ51"/>
+    <mergeCell ref="AE48:AF48"/>
+    <mergeCell ref="AE46:AF46"/>
+    <mergeCell ref="AE42:AF42"/>
+    <mergeCell ref="AE40:AF40"/>
+    <mergeCell ref="AE36:AF36"/>
+    <mergeCell ref="AE43:AF43"/>
+    <mergeCell ref="AE45:AF45"/>
+    <mergeCell ref="AE37:AF37"/>
+    <mergeCell ref="AE39:AF39"/>
+    <mergeCell ref="AG48:AH48"/>
+    <mergeCell ref="W51:X51"/>
+    <mergeCell ref="Y51:Z51"/>
+    <mergeCell ref="AA51:AB51"/>
+    <mergeCell ref="AK30:AL30"/>
+    <mergeCell ref="AM30:AN30"/>
+    <mergeCell ref="AG31:AH31"/>
+    <mergeCell ref="AI31:AJ31"/>
+    <mergeCell ref="AK31:AL31"/>
+    <mergeCell ref="AM31:AN31"/>
+    <mergeCell ref="AG37:AH37"/>
+    <mergeCell ref="AI37:AJ37"/>
+    <mergeCell ref="AK37:AL37"/>
+    <mergeCell ref="AM37:AN37"/>
+    <mergeCell ref="AG42:AH42"/>
+    <mergeCell ref="AI42:AJ42"/>
+    <mergeCell ref="AK42:AL42"/>
+    <mergeCell ref="AM42:AN42"/>
+    <mergeCell ref="AG43:AH43"/>
+    <mergeCell ref="AI43:AJ43"/>
+    <mergeCell ref="AK43:AL43"/>
+    <mergeCell ref="AM43:AN43"/>
+    <mergeCell ref="AG39:AH39"/>
+    <mergeCell ref="AI39:AJ39"/>
+    <mergeCell ref="AK39:AL39"/>
+    <mergeCell ref="AG28:AH28"/>
+    <mergeCell ref="AI28:AJ28"/>
+    <mergeCell ref="AK28:AL28"/>
+    <mergeCell ref="AM28:AN28"/>
+    <mergeCell ref="AG36:AH36"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="AK36:AL36"/>
+    <mergeCell ref="AM36:AN36"/>
+    <mergeCell ref="AK33:AL33"/>
+    <mergeCell ref="AM33:AN33"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="AI34:AJ34"/>
+    <mergeCell ref="AK34:AL34"/>
+    <mergeCell ref="AM34:AN34"/>
+    <mergeCell ref="AG30:AH30"/>
+    <mergeCell ref="AI30:AJ30"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="S48:T48"/>
+    <mergeCell ref="U48:V48"/>
+    <mergeCell ref="W48:X48"/>
+    <mergeCell ref="Y48:Z48"/>
+    <mergeCell ref="AA48:AB48"/>
+    <mergeCell ref="AC48:AD48"/>
+    <mergeCell ref="AM39:AN39"/>
+    <mergeCell ref="AG40:AH40"/>
+    <mergeCell ref="AI40:AJ40"/>
+    <mergeCell ref="AK40:AL40"/>
+    <mergeCell ref="AM40:AN40"/>
+    <mergeCell ref="AI48:AJ48"/>
+    <mergeCell ref="AK48:AL48"/>
+    <mergeCell ref="AM48:AN48"/>
+    <mergeCell ref="AG45:AH45"/>
+    <mergeCell ref="AI45:AJ45"/>
+    <mergeCell ref="AK45:AL45"/>
+    <mergeCell ref="AM45:AN45"/>
+    <mergeCell ref="AG46:AH46"/>
+    <mergeCell ref="AI46:AJ46"/>
+    <mergeCell ref="AK46:AL46"/>
+    <mergeCell ref="AM46:AN46"/>
+    <mergeCell ref="AA45:AB45"/>
+    <mergeCell ref="AC45:AD45"/>
+    <mergeCell ref="W45:X45"/>
+    <mergeCell ref="Y45:Z45"/>
+    <mergeCell ref="AA42:AB42"/>
+    <mergeCell ref="AC42:AD42"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="U46:V46"/>
+    <mergeCell ref="W46:X46"/>
+    <mergeCell ref="Y46:Z46"/>
+    <mergeCell ref="AA46:AB46"/>
+    <mergeCell ref="AC46:AD46"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="U45:V45"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="U40:V40"/>
+    <mergeCell ref="W40:X40"/>
+    <mergeCell ref="Y40:Z40"/>
+    <mergeCell ref="AA40:AB40"/>
+    <mergeCell ref="AC40:AD40"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="U39:V39"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:Z42"/>
+    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="W36:X36"/>
+    <mergeCell ref="Y36:Z36"/>
+    <mergeCell ref="AA39:AB39"/>
+    <mergeCell ref="AC39:AD39"/>
+    <mergeCell ref="W39:X39"/>
+    <mergeCell ref="Y39:Z39"/>
+    <mergeCell ref="AA33:AB33"/>
+    <mergeCell ref="AC33:AD33"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="Y33:Z33"/>
+    <mergeCell ref="AA36:AB36"/>
+    <mergeCell ref="AC36:AD36"/>
+    <mergeCell ref="AC37:AD37"/>
+    <mergeCell ref="AA37:AB37"/>
+    <mergeCell ref="Y37:Z37"/>
+    <mergeCell ref="W37:X37"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="AE34:AF34"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="Y28:Z28"/>
+    <mergeCell ref="AA28:AB28"/>
+    <mergeCell ref="AC28:AD28"/>
+    <mergeCell ref="AE28:AF28"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="W30:X30"/>
+    <mergeCell ref="Y30:Z30"/>
+    <mergeCell ref="AA27:AB27"/>
+    <mergeCell ref="AC27:AD27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="Y27:Z27"/>
+    <mergeCell ref="AA30:AB30"/>
+    <mergeCell ref="AC30:AD30"/>
+    <mergeCell ref="AE30:AF30"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AI25:AJ25"/>
+    <mergeCell ref="AK25:AL25"/>
+    <mergeCell ref="AM25:AN25"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AK24:AL24"/>
+    <mergeCell ref="AM24:AN24"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="AK27:AL27"/>
+    <mergeCell ref="AM27:AN27"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="AI27:AJ27"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="AM22:AN22"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="AK21:AL21"/>
+    <mergeCell ref="AM21:AN21"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="AC24:AD24"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AK16:AL16"/>
+    <mergeCell ref="AM16:AN16"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="AM15:AN15"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AK19:AL19"/>
+    <mergeCell ref="AM19:AN19"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="AK18:AL18"/>
+    <mergeCell ref="AM18:AN18"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="AM12:AN12"/>
+    <mergeCell ref="AM13:AN13"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="AK7:AL7"/>
+    <mergeCell ref="AM7:AN7"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="D82:G82"/>
+    <mergeCell ref="D81:G81"/>
+    <mergeCell ref="D80:G80"/>
+    <mergeCell ref="D86:G86"/>
+    <mergeCell ref="D87:G87"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="AM49:AN49"/>
+    <mergeCell ref="AK49:AL49"/>
+    <mergeCell ref="AI49:AJ49"/>
+    <mergeCell ref="AG49:AH49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="S49:T49"/>
+    <mergeCell ref="U49:V49"/>
+    <mergeCell ref="W49:X49"/>
+    <mergeCell ref="Y49:Z49"/>
+    <mergeCell ref="AA49:AB49"/>
+    <mergeCell ref="AC49:AD49"/>
+    <mergeCell ref="AE49:AF49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="AC43:AD43"/>
+    <mergeCell ref="AA43:AB43"/>
+    <mergeCell ref="Y43:Z43"/>
+    <mergeCell ref="W43:X43"/>
+    <mergeCell ref="U43:V43"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="AC34:AD34"/>
+    <mergeCell ref="AA34:AB34"/>
+    <mergeCell ref="Y34:Z34"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="Q34:R34"/>
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="G25:H25"/>
@@ -28324,682 +29000,6 @@
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="M30:N30"/>
     <mergeCell ref="O30:P30"/>
-    <mergeCell ref="AC34:AD34"/>
-    <mergeCell ref="AA34:AB34"/>
-    <mergeCell ref="Y34:Z34"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="AC43:AD43"/>
-    <mergeCell ref="AA43:AB43"/>
-    <mergeCell ref="Y43:Z43"/>
-    <mergeCell ref="W43:X43"/>
-    <mergeCell ref="U43:V43"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="AM49:AN49"/>
-    <mergeCell ref="AK49:AL49"/>
-    <mergeCell ref="AI49:AJ49"/>
-    <mergeCell ref="AG49:AH49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="S49:T49"/>
-    <mergeCell ref="U49:V49"/>
-    <mergeCell ref="W49:X49"/>
-    <mergeCell ref="Y49:Z49"/>
-    <mergeCell ref="AA49:AB49"/>
-    <mergeCell ref="AC49:AD49"/>
-    <mergeCell ref="AE49:AF49"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="D82:G82"/>
-    <mergeCell ref="D81:G81"/>
-    <mergeCell ref="D80:G80"/>
-    <mergeCell ref="D86:G86"/>
-    <mergeCell ref="D87:G87"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="AM7:AN7"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="Y19:Z19"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="AM12:AN12"/>
-    <mergeCell ref="AM13:AN13"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="AK16:AL16"/>
-    <mergeCell ref="AM16:AN16"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="AM15:AN15"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="AA19:AB19"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="AK19:AL19"/>
-    <mergeCell ref="AM19:AN19"/>
-    <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="AK18:AL18"/>
-    <mergeCell ref="AM18:AN18"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="AM22:AN22"/>
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="AK21:AL21"/>
-    <mergeCell ref="AM21:AN21"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="AC24:AD24"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="AI25:AJ25"/>
-    <mergeCell ref="AK25:AL25"/>
-    <mergeCell ref="AM25:AN25"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="AK24:AL24"/>
-    <mergeCell ref="AM24:AN24"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="AK27:AL27"/>
-    <mergeCell ref="AM27:AN27"/>
-    <mergeCell ref="AG27:AH27"/>
-    <mergeCell ref="AI27:AJ27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="Y28:Z28"/>
-    <mergeCell ref="AA28:AB28"/>
-    <mergeCell ref="AC28:AD28"/>
-    <mergeCell ref="AE28:AF28"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="U30:V30"/>
-    <mergeCell ref="W30:X30"/>
-    <mergeCell ref="Y30:Z30"/>
-    <mergeCell ref="AA27:AB27"/>
-    <mergeCell ref="AC27:AD27"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="Y27:Z27"/>
-    <mergeCell ref="AA30:AB30"/>
-    <mergeCell ref="AC30:AD30"/>
-    <mergeCell ref="AE30:AF30"/>
-    <mergeCell ref="AE33:AF33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="W36:X36"/>
-    <mergeCell ref="Y36:Z36"/>
-    <mergeCell ref="AA39:AB39"/>
-    <mergeCell ref="AC39:AD39"/>
-    <mergeCell ref="W39:X39"/>
-    <mergeCell ref="Y39:Z39"/>
-    <mergeCell ref="AA33:AB33"/>
-    <mergeCell ref="AC33:AD33"/>
-    <mergeCell ref="W33:X33"/>
-    <mergeCell ref="Y33:Z33"/>
-    <mergeCell ref="AA36:AB36"/>
-    <mergeCell ref="AC36:AD36"/>
-    <mergeCell ref="AC37:AD37"/>
-    <mergeCell ref="AA37:AB37"/>
-    <mergeCell ref="Y37:Z37"/>
-    <mergeCell ref="W37:X37"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="AE34:AF34"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="U40:V40"/>
-    <mergeCell ref="W40:X40"/>
-    <mergeCell ref="Y40:Z40"/>
-    <mergeCell ref="AA40:AB40"/>
-    <mergeCell ref="AC40:AD40"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="U39:V39"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="Y42:Z42"/>
-    <mergeCell ref="W45:X45"/>
-    <mergeCell ref="Y45:Z45"/>
-    <mergeCell ref="AA42:AB42"/>
-    <mergeCell ref="AC42:AD42"/>
-    <mergeCell ref="S46:T46"/>
-    <mergeCell ref="U46:V46"/>
-    <mergeCell ref="W46:X46"/>
-    <mergeCell ref="Y46:Z46"/>
-    <mergeCell ref="AA46:AB46"/>
-    <mergeCell ref="AC46:AD46"/>
-    <mergeCell ref="S45:T45"/>
-    <mergeCell ref="U45:V45"/>
-    <mergeCell ref="S48:T48"/>
-    <mergeCell ref="U48:V48"/>
-    <mergeCell ref="W48:X48"/>
-    <mergeCell ref="Y48:Z48"/>
-    <mergeCell ref="AA48:AB48"/>
-    <mergeCell ref="AC48:AD48"/>
-    <mergeCell ref="AM39:AN39"/>
-    <mergeCell ref="AG40:AH40"/>
-    <mergeCell ref="AI40:AJ40"/>
-    <mergeCell ref="AK40:AL40"/>
-    <mergeCell ref="AM40:AN40"/>
-    <mergeCell ref="AI48:AJ48"/>
-    <mergeCell ref="AK48:AL48"/>
-    <mergeCell ref="AM48:AN48"/>
-    <mergeCell ref="AG45:AH45"/>
-    <mergeCell ref="AI45:AJ45"/>
-    <mergeCell ref="AK45:AL45"/>
-    <mergeCell ref="AM45:AN45"/>
-    <mergeCell ref="AG46:AH46"/>
-    <mergeCell ref="AI46:AJ46"/>
-    <mergeCell ref="AK46:AL46"/>
-    <mergeCell ref="AM46:AN46"/>
-    <mergeCell ref="AA45:AB45"/>
-    <mergeCell ref="AC45:AD45"/>
-    <mergeCell ref="AG28:AH28"/>
-    <mergeCell ref="AI28:AJ28"/>
-    <mergeCell ref="AK28:AL28"/>
-    <mergeCell ref="AM28:AN28"/>
-    <mergeCell ref="AG36:AH36"/>
-    <mergeCell ref="AI36:AJ36"/>
-    <mergeCell ref="AK36:AL36"/>
-    <mergeCell ref="AM36:AN36"/>
-    <mergeCell ref="AK33:AL33"/>
-    <mergeCell ref="AM33:AN33"/>
-    <mergeCell ref="AG34:AH34"/>
-    <mergeCell ref="AI34:AJ34"/>
-    <mergeCell ref="AK34:AL34"/>
-    <mergeCell ref="AM34:AN34"/>
-    <mergeCell ref="AG30:AH30"/>
-    <mergeCell ref="AI30:AJ30"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="W51:X51"/>
-    <mergeCell ref="Y51:Z51"/>
-    <mergeCell ref="AA51:AB51"/>
-    <mergeCell ref="AK30:AL30"/>
-    <mergeCell ref="AM30:AN30"/>
-    <mergeCell ref="AG31:AH31"/>
-    <mergeCell ref="AI31:AJ31"/>
-    <mergeCell ref="AK31:AL31"/>
-    <mergeCell ref="AM31:AN31"/>
-    <mergeCell ref="AG37:AH37"/>
-    <mergeCell ref="AI37:AJ37"/>
-    <mergeCell ref="AK37:AL37"/>
-    <mergeCell ref="AM37:AN37"/>
-    <mergeCell ref="AG42:AH42"/>
-    <mergeCell ref="AI42:AJ42"/>
-    <mergeCell ref="AK42:AL42"/>
-    <mergeCell ref="AM42:AN42"/>
-    <mergeCell ref="AG43:AH43"/>
-    <mergeCell ref="AI43:AJ43"/>
-    <mergeCell ref="AK43:AL43"/>
-    <mergeCell ref="AM43:AN43"/>
-    <mergeCell ref="AG39:AH39"/>
-    <mergeCell ref="AI39:AJ39"/>
-    <mergeCell ref="AK39:AL39"/>
-    <mergeCell ref="AC51:AD51"/>
-    <mergeCell ref="AE51:AF51"/>
-    <mergeCell ref="AG51:AH51"/>
-    <mergeCell ref="AI51:AJ51"/>
-    <mergeCell ref="AE48:AF48"/>
-    <mergeCell ref="AE46:AF46"/>
-    <mergeCell ref="AE42:AF42"/>
-    <mergeCell ref="AE40:AF40"/>
-    <mergeCell ref="AE36:AF36"/>
-    <mergeCell ref="AE43:AF43"/>
-    <mergeCell ref="AE45:AF45"/>
-    <mergeCell ref="AE37:AF37"/>
-    <mergeCell ref="AE39:AF39"/>
-    <mergeCell ref="AG48:AH48"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="S52:T52"/>
-    <mergeCell ref="U52:V52"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="S51:T51"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="U51:V51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="O54:P54"/>
-    <mergeCell ref="U55:V55"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="S54:T54"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="U54:V54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="U57:V57"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="O59:P59"/>
-    <mergeCell ref="Q59:R59"/>
-    <mergeCell ref="S59:T59"/>
-    <mergeCell ref="U59:V59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="AA63:AB63"/>
-    <mergeCell ref="S65:T65"/>
-    <mergeCell ref="U65:V65"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="O63:P63"/>
-    <mergeCell ref="Q63:R63"/>
-    <mergeCell ref="S63:T63"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="U63:V63"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="O66:P66"/>
-    <mergeCell ref="Q66:R66"/>
-    <mergeCell ref="S66:T66"/>
-    <mergeCell ref="O65:P65"/>
-    <mergeCell ref="Q65:R65"/>
-    <mergeCell ref="U66:V66"/>
-    <mergeCell ref="W52:X52"/>
-    <mergeCell ref="Y52:Z52"/>
-    <mergeCell ref="W55:X55"/>
-    <mergeCell ref="Y55:Z55"/>
-    <mergeCell ref="O62:P62"/>
-    <mergeCell ref="Q62:R62"/>
-    <mergeCell ref="S62:T62"/>
-    <mergeCell ref="U62:V62"/>
-    <mergeCell ref="O60:P60"/>
-    <mergeCell ref="Q60:R60"/>
-    <mergeCell ref="S60:T60"/>
-    <mergeCell ref="U60:V60"/>
-    <mergeCell ref="O57:P57"/>
-    <mergeCell ref="Q57:R57"/>
-    <mergeCell ref="S57:T57"/>
-    <mergeCell ref="W60:X60"/>
-    <mergeCell ref="Y60:Z60"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="S55:T55"/>
-    <mergeCell ref="AC52:AD52"/>
-    <mergeCell ref="AE52:AF52"/>
-    <mergeCell ref="AG52:AH52"/>
-    <mergeCell ref="AI52:AJ52"/>
-    <mergeCell ref="AA57:AB57"/>
-    <mergeCell ref="AC57:AD57"/>
-    <mergeCell ref="AE57:AF57"/>
-    <mergeCell ref="AG57:AH57"/>
-    <mergeCell ref="AI57:AJ57"/>
-    <mergeCell ref="AA55:AB55"/>
-    <mergeCell ref="AC55:AD55"/>
-    <mergeCell ref="AA52:AB52"/>
-    <mergeCell ref="AA54:AB54"/>
-    <mergeCell ref="AI55:AJ55"/>
-    <mergeCell ref="AA60:AB60"/>
-    <mergeCell ref="AC60:AD60"/>
-    <mergeCell ref="AE60:AF60"/>
-    <mergeCell ref="AG60:AH60"/>
-    <mergeCell ref="AC54:AD54"/>
-    <mergeCell ref="AE54:AF54"/>
-    <mergeCell ref="AG54:AH54"/>
-    <mergeCell ref="W54:X54"/>
-    <mergeCell ref="Y54:Z54"/>
-    <mergeCell ref="W59:X59"/>
-    <mergeCell ref="Y59:Z59"/>
-    <mergeCell ref="AA59:AB59"/>
-    <mergeCell ref="AC59:AD59"/>
-    <mergeCell ref="AE55:AF55"/>
-    <mergeCell ref="AG55:AH55"/>
-    <mergeCell ref="W57:X57"/>
-    <mergeCell ref="Y57:Z57"/>
-    <mergeCell ref="AC63:AD63"/>
-    <mergeCell ref="AE63:AF63"/>
-    <mergeCell ref="AG63:AH63"/>
-    <mergeCell ref="AI63:AJ63"/>
-    <mergeCell ref="W62:X62"/>
-    <mergeCell ref="Y62:Z62"/>
-    <mergeCell ref="AA62:AB62"/>
-    <mergeCell ref="AC62:AD62"/>
-    <mergeCell ref="AI66:AJ66"/>
-    <mergeCell ref="W65:X65"/>
-    <mergeCell ref="Y65:Z65"/>
-    <mergeCell ref="AA65:AB65"/>
-    <mergeCell ref="AC65:AD65"/>
-    <mergeCell ref="AE62:AF62"/>
-    <mergeCell ref="AG62:AH62"/>
-    <mergeCell ref="AI62:AJ62"/>
-    <mergeCell ref="W63:X63"/>
-    <mergeCell ref="Y63:Z63"/>
-    <mergeCell ref="W66:X66"/>
-    <mergeCell ref="Y66:Z66"/>
-    <mergeCell ref="AA66:AB66"/>
-    <mergeCell ref="AC66:AD66"/>
-    <mergeCell ref="AE66:AF66"/>
-    <mergeCell ref="AG66:AH66"/>
-    <mergeCell ref="AK51:AL51"/>
-    <mergeCell ref="AM51:AN51"/>
-    <mergeCell ref="AK52:AL52"/>
-    <mergeCell ref="AM52:AN52"/>
-    <mergeCell ref="AE65:AF65"/>
-    <mergeCell ref="AG65:AH65"/>
-    <mergeCell ref="AI65:AJ65"/>
-    <mergeCell ref="AE59:AF59"/>
-    <mergeCell ref="AG59:AH59"/>
-    <mergeCell ref="AI59:AJ59"/>
-    <mergeCell ref="AI60:AJ60"/>
-    <mergeCell ref="AI54:AJ54"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="S5:V5"/>
-    <mergeCell ref="W5:Z5"/>
-    <mergeCell ref="AA5:AD5"/>
-    <mergeCell ref="AE5:AH5"/>
-    <mergeCell ref="AI5:AN5"/>
-    <mergeCell ref="AK66:AL66"/>
-    <mergeCell ref="AM54:AN54"/>
-    <mergeCell ref="AM55:AN55"/>
-    <mergeCell ref="AM57:AN57"/>
-    <mergeCell ref="AM59:AN59"/>
-    <mergeCell ref="AM60:AN60"/>
-    <mergeCell ref="AM62:AN62"/>
-    <mergeCell ref="AM63:AN63"/>
-    <mergeCell ref="AM65:AN65"/>
-    <mergeCell ref="AM66:AN66"/>
-    <mergeCell ref="AK60:AL60"/>
-    <mergeCell ref="AK62:AL62"/>
-    <mergeCell ref="AK63:AL63"/>
-    <mergeCell ref="AK65:AL65"/>
-    <mergeCell ref="AK54:AL54"/>
-    <mergeCell ref="AK55:AL55"/>
-    <mergeCell ref="AK57:AL57"/>
-    <mergeCell ref="AK59:AL59"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="E55868:L55894 E55863:AN55866">
